--- a/main_project/input/routes.xlsx
+++ b/main_project/input/routes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\Documents\GitHub\tcc\main_project\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF14ECF6-DD6C-4DD0-9FE0-0F730ECE0572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A4456F-E249-4F9A-9F53-1AC0E38D57FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B6131046-DEA8-432B-848C-1CFAC60494D3}"/>
   </bookViews>
@@ -39,88 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="401">
-  <si>
-    <t>Chapecó - SC</t>
-  </si>
-  <si>
-    <t>Florianópolis - SC</t>
-  </si>
-  <si>
-    <t>Porto Alegre - RS</t>
-  </si>
-  <si>
-    <t>São Paulo - SP</t>
-  </si>
-  <si>
-    <t>Cuiabá - MT</t>
-  </si>
-  <si>
-    <t>Macapá - AP</t>
-  </si>
-  <si>
-    <t>Foz do Iguaçu - PR</t>
-  </si>
-  <si>
-    <t>Itapipoca - CE</t>
-  </si>
-  <si>
-    <t>Aracati - CE</t>
-  </si>
-  <si>
-    <t>São Benedito - CE</t>
-  </si>
-  <si>
-    <t>Presidente Juscelino - MA</t>
-  </si>
-  <si>
-    <t>Santa Helena - MA</t>
-  </si>
-  <si>
-    <t>Esperantina - PI</t>
-  </si>
-  <si>
-    <t>Rio de Janeiro - RJ</t>
-  </si>
-  <si>
-    <t>Fortaleza - CE</t>
-  </si>
-  <si>
-    <t>Recife - PE</t>
-  </si>
-  <si>
-    <t>São José de Mipibu - RN</t>
-  </si>
-  <si>
-    <t>Manaus - AM</t>
-  </si>
-  <si>
-    <t>Natal - RN</t>
-  </si>
-  <si>
-    <t>Mossoró - RN</t>
-  </si>
-  <si>
-    <t>Itajaí - SC</t>
-  </si>
-  <si>
-    <t>João Pessoa - PB</t>
-  </si>
-  <si>
-    <t>São Luís - MA</t>
-  </si>
-  <si>
-    <t>Curitiba - PR</t>
-  </si>
-  <si>
-    <t>Parnaíba - PI</t>
-  </si>
-  <si>
-    <t>Jijoca de Jericoacoara - CE</t>
-  </si>
-  <si>
-    <t>Jaguaruna - SC</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="400">
   <si>
     <t>demand</t>
   </si>
@@ -1242,6 +1161,84 @@
   </si>
   <si>
     <t>Nonoai</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>Florianópolis</t>
+  </si>
+  <si>
+    <t>Porto Alegre</t>
+  </si>
+  <si>
+    <t>Curitiba</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Itajaí</t>
+  </si>
+  <si>
+    <t>Foz do Iguaçu</t>
+  </si>
+  <si>
+    <t>Cuiabá</t>
+  </si>
+  <si>
+    <t>Jaguaruna</t>
+  </si>
+  <si>
+    <t>Macapá</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
+  </si>
+  <si>
+    <t>Natal</t>
+  </si>
+  <si>
+    <t>Jijoca de Jericoacoara</t>
+  </si>
+  <si>
+    <t>São José de Mipibu</t>
+  </si>
+  <si>
+    <t>Itapipoca</t>
+  </si>
+  <si>
+    <t>Aracati</t>
+  </si>
+  <si>
+    <t>Parnaíba</t>
+  </si>
+  <si>
+    <t>Mossoró</t>
+  </si>
+  <si>
+    <t>João Pessoa</t>
+  </si>
+  <si>
+    <t>São Luís</t>
+  </si>
+  <si>
+    <t>Santa Helena</t>
+  </si>
+  <si>
+    <t>São Benedito</t>
+  </si>
+  <si>
+    <t>Presidente Juscelino</t>
+  </si>
+  <si>
+    <t>Recife</t>
+  </si>
+  <si>
+    <t>Esperantina</t>
+  </si>
+  <si>
+    <t>Manaus</t>
   </si>
 </sst>
 </file>
@@ -1662,7 +1659,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1679,45 +1676,45 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E2" s="5">
-        <v>2595.3476561217421</v>
+        <v>745.66001693462886</v>
       </c>
       <c r="F2" s="5">
-        <v>0</v>
+        <v>324752</v>
       </c>
       <c r="G2" s="7">
         <v>5000</v>
@@ -1725,22 +1722,22 @@
     </row>
     <row r="3" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E3" s="5">
-        <v>625.06136504981976</v>
+        <v>410.01918821484685</v>
       </c>
       <c r="F3" s="5">
-        <v>0</v>
+        <v>119724</v>
       </c>
       <c r="G3" s="7">
         <v>5000</v>
@@ -1748,22 +1745,22 @@
     </row>
     <row r="4" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>0</v>
+        <v>376</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="E4" s="5">
-        <v>799.11653091287917</v>
+        <v>349.7495022626872</v>
       </c>
       <c r="F4" s="5">
-        <v>0</v>
+        <v>8658</v>
       </c>
       <c r="G4" s="7">
         <v>5000</v>
@@ -1771,22 +1768,22 @@
     </row>
     <row r="5" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>0</v>
+        <v>377</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="E5" s="5">
-        <v>2296.2051433357592</v>
+        <v>390.38026465278921</v>
       </c>
       <c r="F5" s="5">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="G5" s="7">
         <v>5000</v>
@@ -1794,22 +1791,22 @@
     </row>
     <row r="6" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E6" s="5">
-        <v>1186.1948534685171</v>
+        <v>1217.4302362536803</v>
       </c>
       <c r="F6" s="5">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="G6" s="7">
         <v>5000</v>
@@ -1817,22 +1814,22 @@
     </row>
     <row r="7" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E7" s="5">
-        <v>729.73941775398407</v>
+        <v>1063.0447992510849</v>
       </c>
       <c r="F7" s="5">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7">
         <v>5000</v>
@@ -1840,22 +1837,22 @@
     </row>
     <row r="8" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E8" s="5">
-        <v>772.28707793647891</v>
+        <v>398.37561542935725</v>
       </c>
       <c r="F8" s="5">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="G8" s="7">
         <v>5000</v>
@@ -1863,22 +1860,22 @@
     </row>
     <row r="9" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="E9" s="5">
-        <v>234.42904942862396</v>
+        <v>249.12701665567963</v>
       </c>
       <c r="F9" s="5">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="G9" s="7">
         <v>5000</v>
@@ -1886,22 +1883,22 @@
     </row>
     <row r="10" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E10" s="5">
-        <v>412.26188769529864</v>
+        <v>1325.8839930990498</v>
       </c>
       <c r="F10" s="5">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G10" s="7">
         <v>5000</v>
@@ -1909,22 +1906,22 @@
     </row>
     <row r="11" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>0</v>
+        <v>382</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E11" s="5">
-        <v>2425.3893312541509</v>
+        <v>393.20954149004848</v>
       </c>
       <c r="F11" s="5">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G11" s="7">
         <v>5000</v>
@@ -1932,19 +1929,19 @@
     </row>
     <row r="12" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E12" s="5">
-        <v>2262.042687260946</v>
+        <v>2595.3476561217421</v>
       </c>
       <c r="F12" s="5">
         <v>0</v>
@@ -1955,19 +1952,19 @@
     </row>
     <row r="13" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E13" s="5">
-        <v>436.29034315855267</v>
+        <v>625.06136504981976</v>
       </c>
       <c r="F13" s="5">
         <v>0</v>
@@ -1978,19 +1975,19 @@
     </row>
     <row r="14" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E14" s="5">
-        <v>370.93806322768177</v>
+        <v>799.11653091287917</v>
       </c>
       <c r="F14" s="5">
         <v>0</v>
@@ -2001,19 +1998,19 @@
     </row>
     <row r="15" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E15" s="5">
-        <v>748.5608435703906</v>
+        <v>2296.2051433357592</v>
       </c>
       <c r="F15" s="5">
         <v>0</v>
@@ -2024,19 +2021,19 @@
     </row>
     <row r="16" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E16" s="5">
-        <v>2521.8662949170662</v>
+        <v>1186.1948534685171</v>
       </c>
       <c r="F16" s="5">
         <v>0</v>
@@ -2047,19 +2044,19 @@
     </row>
     <row r="17" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E17" s="5">
-        <v>751.50950530341697</v>
+        <v>729.73941775398407</v>
       </c>
       <c r="F17" s="5">
         <v>0</v>
@@ -2070,19 +2067,19 @@
     </row>
     <row r="18" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E18" s="5">
-        <v>2679.0201549074063</v>
+        <v>772.28707793647891</v>
       </c>
       <c r="F18" s="5">
         <v>0</v>
@@ -2093,19 +2090,19 @@
     </row>
     <row r="19" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E19" s="5">
-        <v>493.72762842884413</v>
+        <v>234.42904942862396</v>
       </c>
       <c r="F19" s="5">
         <v>0</v>
@@ -2116,19 +2113,19 @@
     </row>
     <row r="20" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E20" s="5">
-        <v>1253.8220876530738</v>
+        <v>412.26188769529864</v>
       </c>
       <c r="F20" s="5">
         <v>0</v>
@@ -2139,19 +2136,19 @@
     </row>
     <row r="21" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E21" s="5">
-        <v>1854.6194481212106</v>
+        <v>2425.3893312541509</v>
       </c>
       <c r="F21" s="5">
         <v>0</v>
@@ -2162,19 +2159,19 @@
     </row>
     <row r="22" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E22" s="5">
-        <v>837.17240145069923</v>
+        <v>2262.042687260946</v>
       </c>
       <c r="F22" s="5">
         <v>0</v>
@@ -2185,19 +2182,19 @@
     </row>
     <row r="23" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E23" s="5">
-        <v>661.75905555564077</v>
+        <v>436.29034315855267</v>
       </c>
       <c r="F23" s="5">
         <v>0</v>
@@ -2208,19 +2205,19 @@
     </row>
     <row r="24" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E24" s="5">
-        <v>2897.7393268651672</v>
+        <v>370.93806322768177</v>
       </c>
       <c r="F24" s="5">
         <v>0</v>
@@ -2231,22 +2228,22 @@
     </row>
     <row r="25" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E25" s="5">
-        <v>1217.4302362536803</v>
+        <v>748.5608435703906</v>
       </c>
       <c r="F25" s="5">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="G25" s="7">
         <v>5000</v>
@@ -2254,19 +2251,19 @@
     </row>
     <row r="26" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E26" s="5">
-        <v>261.88440323314916</v>
+        <v>2521.8662949170662</v>
       </c>
       <c r="F26" s="5">
         <v>0</v>
@@ -2277,19 +2274,19 @@
     </row>
     <row r="27" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E27" s="5">
-        <v>689.94588178982235</v>
+        <v>751.50950530341697</v>
       </c>
       <c r="F27" s="5">
         <v>0</v>
@@ -2300,19 +2297,19 @@
     </row>
     <row r="28" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E28" s="5">
-        <v>355.15573164673134</v>
+        <v>2679.0201549074063</v>
       </c>
       <c r="F28" s="5">
         <v>0</v>
@@ -2323,19 +2320,19 @@
     </row>
     <row r="29" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E29" s="5">
-        <v>3442.6110672443556</v>
+        <v>493.72762842884413</v>
       </c>
       <c r="F29" s="5">
         <v>0</v>
@@ -2346,19 +2343,19 @@
     </row>
     <row r="30" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E30" s="5">
-        <v>629.48122265089341</v>
+        <v>1253.8220876530738</v>
       </c>
       <c r="F30" s="5">
         <v>0</v>
@@ -2369,19 +2366,19 @@
     </row>
     <row r="31" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E31" s="5">
-        <v>771.84686244667603</v>
+        <v>1854.6194481212106</v>
       </c>
       <c r="F31" s="5">
         <v>0</v>
@@ -2392,19 +2389,19 @@
     </row>
     <row r="32" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E32" s="5">
-        <v>1344.6449886238597</v>
+        <v>837.17240145069923</v>
       </c>
       <c r="F32" s="5">
         <v>0</v>
@@ -2415,19 +2412,19 @@
     </row>
     <row r="33" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E33" s="5">
-        <v>370.83740908187315</v>
+        <v>661.75905555564077</v>
       </c>
       <c r="F33" s="5">
         <v>0</v>
@@ -2438,19 +2435,19 @@
     </row>
     <row r="34" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E34" s="5">
-        <v>1125.8289041507792</v>
+        <v>2897.7393268651672</v>
       </c>
       <c r="F34" s="5">
         <v>0</v>
@@ -2461,19 +2458,19 @@
     </row>
     <row r="35" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E35" s="5">
-        <v>834.44087241091722</v>
+        <v>261.88440323314916</v>
       </c>
       <c r="F35" s="5">
         <v>0</v>
@@ -2484,19 +2481,19 @@
     </row>
     <row r="36" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E36" s="5">
-        <v>2829.8216607331333</v>
+        <v>689.94588178982235</v>
       </c>
       <c r="F36" s="5">
         <v>0</v>
@@ -2507,19 +2504,19 @@
     </row>
     <row r="37" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E37" s="5">
-        <v>768.65548949912386</v>
+        <v>355.15573164673134</v>
       </c>
       <c r="F37" s="5">
         <v>0</v>
@@ -2530,19 +2527,19 @@
     </row>
     <row r="38" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E38" s="5">
-        <v>1297.7569707352523</v>
+        <v>3442.6110672443556</v>
       </c>
       <c r="F38" s="5">
         <v>0</v>
@@ -2553,19 +2550,19 @@
     </row>
     <row r="39" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E39" s="5">
-        <v>306.53834389328597</v>
+        <v>629.48122265089341</v>
       </c>
       <c r="F39" s="5">
         <v>0</v>
@@ -2576,19 +2573,19 @@
     </row>
     <row r="40" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E40" s="5">
-        <v>258.94290388379437</v>
+        <v>771.84686244667603</v>
       </c>
       <c r="F40" s="5">
         <v>0</v>
@@ -2599,19 +2596,19 @@
     </row>
     <row r="41" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E41" s="5">
-        <v>552.38853339009836</v>
+        <v>1344.6449886238597</v>
       </c>
       <c r="F41" s="5">
         <v>0</v>
@@ -2622,19 +2619,19 @@
     </row>
     <row r="42" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E42" s="5">
-        <v>389.02970089098744</v>
+        <v>370.83740908187315</v>
       </c>
       <c r="F42" s="5">
         <v>0</v>
@@ -2645,19 +2642,19 @@
     </row>
     <row r="43" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E43" s="5">
-        <v>106.46638344468955</v>
+        <v>1125.8289041507792</v>
       </c>
       <c r="F43" s="5">
         <v>0</v>
@@ -2668,19 +2665,19 @@
     </row>
     <row r="44" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E44" s="5">
-        <v>693.68652656037693</v>
+        <v>834.44087241091722</v>
       </c>
       <c r="F44" s="5">
         <v>0</v>
@@ -2691,19 +2688,19 @@
     </row>
     <row r="45" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E45" s="5">
-        <v>865.89058888368493</v>
+        <v>2829.8216607331333</v>
       </c>
       <c r="F45" s="5">
         <v>0</v>
@@ -2714,19 +2711,19 @@
     </row>
     <row r="46" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E46" s="5">
-        <v>2270.5236052157343</v>
+        <v>768.65548949912386</v>
       </c>
       <c r="F46" s="5">
         <v>0</v>
@@ -2737,19 +2734,19 @@
     </row>
     <row r="47" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E47" s="5">
-        <v>2732.234278355686</v>
+        <v>1297.7569707352523</v>
       </c>
       <c r="F47" s="5">
         <v>0</v>
@@ -2760,19 +2757,19 @@
     </row>
     <row r="48" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E48" s="5">
-        <v>251.43905417195143</v>
+        <v>306.53834389328597</v>
       </c>
       <c r="F48" s="5">
         <v>0</v>
@@ -2783,19 +2780,19 @@
     </row>
     <row r="49" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E49" s="5">
-        <v>1104.9532043148624</v>
+        <v>258.94290388379437</v>
       </c>
       <c r="F49" s="5">
         <v>0</v>
@@ -2806,19 +2803,19 @@
     </row>
     <row r="50" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E50" s="5">
-        <v>716.39631313774146</v>
+        <v>552.38853339009836</v>
       </c>
       <c r="F50" s="5">
         <v>0</v>
@@ -2829,19 +2826,19 @@
     </row>
     <row r="51" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E51" s="5">
-        <v>270.88375776283146</v>
+        <v>389.02970089098744</v>
       </c>
       <c r="F51" s="5">
         <v>0</v>
@@ -2852,22 +2849,22 @@
     </row>
     <row r="52" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E52" s="5">
-        <v>745.66001693462886</v>
+        <v>106.46638344468955</v>
       </c>
       <c r="F52" s="5">
-        <v>324752</v>
+        <v>0</v>
       </c>
       <c r="G52" s="7">
         <v>5000</v>
@@ -2875,22 +2872,22 @@
     </row>
     <row r="53" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E53" s="5">
-        <v>410.01918821484685</v>
+        <v>693.68652656037693</v>
       </c>
       <c r="F53" s="5">
-        <v>119724</v>
+        <v>0</v>
       </c>
       <c r="G53" s="7">
         <v>5000</v>
@@ -2898,22 +2895,22 @@
     </row>
     <row r="54" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E54" s="5">
-        <v>349.7495022626872</v>
+        <v>865.89058888368493</v>
       </c>
       <c r="F54" s="5">
-        <v>8658</v>
+        <v>0</v>
       </c>
       <c r="G54" s="7">
         <v>5000</v>
@@ -2921,22 +2918,22 @@
     </row>
     <row r="55" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E55" s="5">
-        <v>390.38026465278921</v>
+        <v>2270.5236052157343</v>
       </c>
       <c r="F55" s="5">
-        <v>473</v>
+        <v>0</v>
       </c>
       <c r="G55" s="7">
         <v>5000</v>
@@ -2944,22 +2941,22 @@
     </row>
     <row r="56" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E56" s="5">
-        <v>1063.0447992510849</v>
+        <v>2732.234278355686</v>
       </c>
       <c r="F56" s="5">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="G56" s="7">
         <v>5000</v>
@@ -2967,22 +2964,22 @@
     </row>
     <row r="57" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E57" s="5">
-        <v>398.37561542935725</v>
+        <v>251.43905417195143</v>
       </c>
       <c r="F57" s="5">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="G57" s="7">
         <v>5000</v>
@@ -2990,22 +2987,22 @@
     </row>
     <row r="58" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E58" s="5">
-        <v>249.12701665567963</v>
+        <v>1104.9532043148624</v>
       </c>
       <c r="F58" s="5">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="G58" s="7">
         <v>5000</v>
@@ -3013,22 +3010,22 @@
     </row>
     <row r="59" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E59" s="5">
-        <v>1325.8839930990498</v>
+        <v>716.39631313774146</v>
       </c>
       <c r="F59" s="5">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G59" s="7">
         <v>5000</v>
@@ -3036,22 +3033,22 @@
     </row>
     <row r="60" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E60" s="5">
-        <v>393.20954149004848</v>
+        <v>270.88375776283146</v>
       </c>
       <c r="F60" s="5">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G60" s="7">
         <v>5000</v>
@@ -3059,16 +3056,16 @@
     </row>
     <row r="61" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>5</v>
+        <v>383</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E61" s="5">
         <v>3027.5880567980762</v>
@@ -3082,16 +3079,16 @@
     </row>
     <row r="62" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>14</v>
+        <v>384</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E62" s="5">
         <v>2999.8447172811557</v>
@@ -3105,16 +3102,16 @@
     </row>
     <row r="63" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>18</v>
+        <v>385</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="E63" s="5">
         <v>2998.9492853730103</v>
@@ -3128,16 +3125,16 @@
     </row>
     <row r="64" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>25</v>
+        <v>386</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E64" s="5">
         <v>2995.1822062655788</v>
@@ -3151,16 +3148,16 @@
     </row>
     <row r="65" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>16</v>
+        <v>387</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="E65" s="5">
         <v>2979.9955400230833</v>
@@ -3174,16 +3171,16 @@
     </row>
     <row r="66" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>7</v>
+        <v>388</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E66" s="5">
         <v>2973.0234144962674</v>
@@ -3197,16 +3194,16 @@
     </row>
     <row r="67" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>8</v>
+        <v>389</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E67" s="5">
         <v>2963.0386957399523</v>
@@ -3220,16 +3217,16 @@
     </row>
     <row r="68" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>24</v>
+        <v>390</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E68" s="5">
         <v>2935.6365593194291</v>
@@ -3243,16 +3240,16 @@
     </row>
     <row r="69" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>19</v>
+        <v>391</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="E69" s="5">
         <v>2928.9029367800395</v>
@@ -3266,16 +3263,16 @@
     </row>
     <row r="70" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>21</v>
+        <v>392</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E70" s="5">
         <v>2903.7017717769963</v>
@@ -3289,16 +3286,16 @@
     </row>
     <row r="71" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>22</v>
+        <v>393</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E71" s="5">
         <v>2873.1225684022052</v>
@@ -3312,16 +3309,16 @@
     </row>
     <row r="72" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>11</v>
+        <v>394</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E72" s="5">
         <v>2857.8225488386825</v>
@@ -3335,16 +3332,16 @@
     </row>
     <row r="73" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>9</v>
+        <v>395</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E73" s="5">
         <v>2855.5589413270313</v>
@@ -3358,16 +3355,16 @@
     </row>
     <row r="74" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>10</v>
+        <v>396</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E74" s="5">
         <v>2842.3355984930372</v>
@@ -3381,16 +3378,16 @@
     </row>
     <row r="75" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>15</v>
+        <v>397</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E75" s="5">
         <v>2820.6089130118808</v>
@@ -3404,16 +3401,16 @@
     </row>
     <row r="76" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>12</v>
+        <v>398</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E76" s="5">
         <v>2811.3197142911981</v>
@@ -3427,16 +3424,16 @@
     </row>
     <row r="77" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>17</v>
+        <v>399</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="E77" s="5">
         <v>2791.9263611966453</v>
@@ -3450,16 +3447,16 @@
     </row>
     <row r="78" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E78" s="5">
         <v>2789.8791175738756</v>
@@ -3473,16 +3470,16 @@
     </row>
     <row r="79" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="E79" s="5">
         <v>2789.1104499659341</v>
@@ -3496,16 +3493,16 @@
     </row>
     <row r="80" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E80" s="5">
         <v>2756.8288275088753</v>
@@ -3519,16 +3516,16 @@
     </row>
     <row r="81" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E81" s="5">
         <v>2728.1046048888138</v>
@@ -3542,16 +3539,16 @@
     </row>
     <row r="82" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="E82" s="5">
         <v>2723.4266176980059</v>
@@ -3565,16 +3562,16 @@
     </row>
     <row r="83" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E83" s="5">
         <v>2694.4650758795628</v>
@@ -3588,16 +3585,16 @@
     </row>
     <row r="84" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E84" s="5">
         <v>2666.7397953101145</v>
@@ -3611,16 +3608,16 @@
     </row>
     <row r="85" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E85" s="5">
         <v>2652.8709864818593</v>
@@ -3634,16 +3631,16 @@
     </row>
     <row r="86" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="E86" s="5">
         <v>2641.1458787006686</v>
@@ -3657,16 +3654,16 @@
     </row>
     <row r="87" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E87" s="5">
         <v>2626.8764044933919</v>
@@ -3680,16 +3677,16 @@
     </row>
     <row r="88" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E88" s="5">
         <v>2607.50768049812</v>
@@ -3703,16 +3700,16 @@
     </row>
     <row r="89" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E89" s="5">
         <v>2603.3137756780061</v>
@@ -3726,16 +3723,16 @@
     </row>
     <row r="90" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E90" s="5">
         <v>2569.9994760798609</v>
@@ -3749,16 +3746,16 @@
     </row>
     <row r="91" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E91" s="5">
         <v>2522.5414579710023</v>
@@ -3772,16 +3769,16 @@
     </row>
     <row r="92" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E92" s="5">
         <v>2485.4715797619979</v>
@@ -3795,16 +3792,16 @@
     </row>
     <row r="93" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E93" s="5">
         <v>2448.8984497678089</v>
@@ -3818,16 +3815,16 @@
     </row>
     <row r="94" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E94" s="5">
         <v>2390.7896298068663</v>
@@ -3841,16 +3838,16 @@
     </row>
     <row r="95" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="E95" s="5">
         <v>2364.9800175973528</v>
@@ -3864,16 +3861,16 @@
     </row>
     <row r="96" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E96" s="5">
         <v>2354.964293744355</v>
@@ -3887,16 +3884,16 @@
     </row>
     <row r="97" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E97" s="5">
         <v>2354.047557881996</v>
@@ -3910,16 +3907,16 @@
     </row>
     <row r="98" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E98" s="5">
         <v>2348.8240398946969</v>
@@ -3933,16 +3930,16 @@
     </row>
     <row r="99" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="E99" s="5">
         <v>2345.3349370133847</v>
@@ -3956,16 +3953,16 @@
     </row>
     <row r="100" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E100" s="5">
         <v>2344.7994390095882</v>
@@ -3979,16 +3976,16 @@
     </row>
     <row r="101" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E101" s="5">
         <v>2303.7500739265797</v>
@@ -4002,16 +3999,16 @@
     </row>
     <row r="102" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E102" s="5">
         <v>2289.0726767234569</v>
@@ -4025,16 +4022,16 @@
     </row>
     <row r="103" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B103" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="D103" s="4" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="E103" s="5">
         <v>2205.8666259882907</v>
@@ -4048,16 +4045,16 @@
     </row>
     <row r="104" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E104" s="5">
         <v>2194.1690928126095</v>
@@ -4071,16 +4068,16 @@
     </row>
     <row r="105" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E105" s="5">
         <v>2185.1921773626291</v>
@@ -4094,16 +4091,16 @@
     </row>
     <row r="106" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E106" s="5">
         <v>2174.5818261357508</v>
@@ -4117,16 +4114,16 @@
     </row>
     <row r="107" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E107" s="5">
         <v>2151.2389106825535</v>
@@ -4140,16 +4137,16 @@
     </row>
     <row r="108" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E108" s="5">
         <v>2142.2691261174568</v>
@@ -4163,16 +4160,16 @@
     </row>
     <row r="109" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E109" s="5">
         <v>2133.3174381580193</v>
@@ -4186,16 +4183,16 @@
     </row>
     <row r="110" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E110" s="5">
         <v>2094.4734978754418</v>
@@ -4209,16 +4206,16 @@
     </row>
     <row r="111" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E111" s="5">
         <v>2080.9686935434065</v>
@@ -4232,16 +4229,16 @@
     </row>
     <row r="112" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E112" s="5">
         <v>2047.41750028041</v>
@@ -4255,16 +4252,16 @@
     </row>
     <row r="113" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E113" s="5">
         <v>2004.0754280760987</v>
@@ -4278,16 +4275,16 @@
     </row>
     <row r="114" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="E114" s="5">
         <v>1966.797138767025</v>
@@ -4301,16 +4298,16 @@
     </row>
     <row r="115" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="E115" s="5">
         <v>1966.4545682803459</v>
@@ -4324,16 +4321,16 @@
     </row>
     <row r="116" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E116" s="5">
         <v>1966.2823739298708</v>
@@ -4347,16 +4344,16 @@
     </row>
     <row r="117" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E117" s="5">
         <v>1954.8452381635047</v>
@@ -4370,16 +4367,16 @@
     </row>
     <row r="118" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E118" s="5">
         <v>1953.7399974083503</v>
@@ -4393,16 +4390,16 @@
     </row>
     <row r="119" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E119" s="5">
         <v>1950.6704639296456</v>
@@ -4416,16 +4413,16 @@
     </row>
     <row r="120" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="E120" s="5">
         <v>1938.8551502874584</v>
@@ -4439,16 +4436,16 @@
     </row>
     <row r="121" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E121" s="5">
         <v>1926.5097545433887</v>
@@ -4462,16 +4459,16 @@
     </row>
     <row r="122" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E122" s="5">
         <v>1914.1352843164582</v>
@@ -4485,16 +4482,16 @@
     </row>
     <row r="123" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E123" s="5">
         <v>1904.7967999359068</v>
@@ -4508,16 +4505,16 @@
     </row>
     <row r="124" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E124" s="5">
         <v>1901.4945457291506</v>
@@ -4531,16 +4528,16 @@
     </row>
     <row r="125" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E125" s="5">
         <v>1845.1823814607053</v>
@@ -4554,16 +4551,16 @@
     </row>
     <row r="126" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E126" s="5">
         <v>1836.3126484959041</v>
@@ -4577,16 +4574,16 @@
     </row>
     <row r="127" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E127" s="5">
         <v>1831.0766498963042</v>
@@ -4600,16 +4597,16 @@
     </row>
     <row r="128" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E128" s="5">
         <v>1813.9651810412029</v>
@@ -4623,16 +4620,16 @@
     </row>
     <row r="129" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E129" s="5">
         <v>1801.7493374422197</v>
@@ -4646,16 +4643,16 @@
     </row>
     <row r="130" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E130" s="5">
         <v>1800.5554838925027</v>
@@ -4669,16 +4666,16 @@
     </row>
     <row r="131" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="E131" s="5">
         <v>1782.610455666073</v>
@@ -4692,16 +4689,16 @@
     </row>
     <row r="132" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E132" s="5">
         <v>1751.0452337216013</v>
@@ -4715,16 +4712,16 @@
     </row>
     <row r="133" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E133" s="5">
         <v>1722.8526986841193</v>
@@ -4738,16 +4735,16 @@
     </row>
     <row r="134" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E134" s="5">
         <v>1660.0887352802308</v>
@@ -4761,16 +4758,16 @@
     </row>
     <row r="135" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E135" s="5">
         <v>1612.1823498887952</v>
@@ -4784,16 +4781,16 @@
     </row>
     <row r="136" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E136" s="5">
         <v>1604.2142671871454</v>
@@ -4807,16 +4804,16 @@
     </row>
     <row r="137" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E137" s="5">
         <v>1594.1206276994481</v>
@@ -4830,16 +4827,16 @@
     </row>
     <row r="138" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E138" s="5">
         <v>1588.2807297859451</v>
@@ -4853,16 +4850,16 @@
     </row>
     <row r="139" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E139" s="5">
         <v>1569.5160284835806</v>
@@ -4876,16 +4873,16 @@
     </row>
     <row r="140" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E140" s="5">
         <v>1548.66831825745</v>
@@ -4899,16 +4896,16 @@
     </row>
     <row r="141" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E141" s="5">
         <v>1508.2897960865757</v>
@@ -4922,16 +4919,16 @@
     </row>
     <row r="142" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E142" s="5">
         <v>1473.904188779597</v>
@@ -4945,16 +4942,16 @@
     </row>
     <row r="143" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E143" s="5">
         <v>1472.6166989772112</v>
@@ -4968,16 +4965,16 @@
     </row>
     <row r="144" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E144" s="5">
         <v>1472.5288677651242</v>
@@ -4991,16 +4988,16 @@
     </row>
     <row r="145" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E145" s="5">
         <v>1470.5023152397919</v>
@@ -5014,16 +5011,16 @@
     </row>
     <row r="146" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E146" s="5">
         <v>1459.2187738948403</v>
@@ -5037,16 +5034,16 @@
     </row>
     <row r="147" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E147" s="5">
         <v>1447.6247242921734</v>
@@ -5060,16 +5057,16 @@
     </row>
     <row r="148" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E148" s="5">
         <v>1430.7222461667677</v>
@@ -5083,16 +5080,16 @@
     </row>
     <row r="149" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E149" s="5">
         <v>1424.4181291937448</v>
@@ -5106,16 +5103,16 @@
     </row>
     <row r="150" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E150" s="5">
         <v>1342.6456132294472</v>
@@ -5129,16 +5126,16 @@
     </row>
     <row r="151" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E151" s="5">
         <v>1336.5421833422049</v>
@@ -5152,16 +5149,16 @@
     </row>
     <row r="152" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E152" s="5">
         <v>1336.4579573529702</v>
@@ -5175,16 +5172,16 @@
     </row>
     <row r="153" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E153" s="5">
         <v>1311.201008465275</v>
@@ -5198,16 +5195,16 @@
     </row>
     <row r="154" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E154" s="5">
         <v>1297.9378315544934</v>
@@ -5221,16 +5218,16 @@
     </row>
     <row r="155" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E155" s="5">
         <v>1264.4555176419506</v>
@@ -5244,16 +5241,16 @@
     </row>
     <row r="156" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E156" s="5">
         <v>1260.8537147302695</v>
@@ -5267,16 +5264,16 @@
     </row>
     <row r="157" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E157" s="5">
         <v>1249.9784699446936</v>
@@ -5290,16 +5287,16 @@
     </row>
     <row r="158" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E158" s="5">
         <v>1236.8018943231405</v>
@@ -5313,16 +5310,16 @@
     </row>
     <row r="159" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="E159" s="5">
         <v>1221.8630677331087</v>
@@ -5336,16 +5333,16 @@
     </row>
     <row r="160" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E160" s="5">
         <v>1220.3953701271198</v>
@@ -5359,16 +5356,16 @@
     </row>
     <row r="161" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E161" s="5">
         <v>1214.0138305911553</v>
@@ -5382,16 +5379,16 @@
     </row>
     <row r="162" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E162" s="5">
         <v>1203.5248252487652</v>
@@ -5405,16 +5402,16 @@
     </row>
     <row r="163" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E163" s="5">
         <v>1195.7884866079994</v>
@@ -5428,16 +5425,16 @@
     </row>
     <row r="164" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E164" s="5">
         <v>1192.0229408599475</v>
@@ -5451,16 +5448,16 @@
     </row>
     <row r="165" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="E165" s="5">
         <v>1155.8245743093723</v>
@@ -5474,16 +5471,16 @@
     </row>
     <row r="166" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E166" s="5">
         <v>1153.8883450634803</v>
@@ -5497,16 +5494,16 @@
     </row>
     <row r="167" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E167" s="5">
         <v>1149.8260210522769</v>
@@ -5520,16 +5517,16 @@
     </row>
     <row r="168" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E168" s="5">
         <v>1147.0063524916293</v>
@@ -5543,16 +5540,16 @@
     </row>
     <row r="169" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E169" s="5">
         <v>1146.072194648945</v>
@@ -5566,16 +5563,16 @@
     </row>
     <row r="170" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E170" s="5">
         <v>1132.9544448099839</v>
@@ -5589,16 +5586,16 @@
     </row>
     <row r="171" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E171" s="5">
         <v>1107.2489124665008</v>
@@ -5612,16 +5609,16 @@
     </row>
     <row r="172" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E172" s="5">
         <v>1088.2164292826319</v>
@@ -5635,16 +5632,16 @@
     </row>
     <row r="173" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="E173" s="5">
         <v>1085.9761616838432</v>
@@ -5658,16 +5655,16 @@
     </row>
     <row r="174" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E174" s="5">
         <v>1068.1292833100395</v>
@@ -5681,16 +5678,16 @@
     </row>
     <row r="175" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E175" s="5">
         <v>1065.5190107531489</v>
@@ -5704,16 +5701,16 @@
     </row>
     <row r="176" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E176" s="5">
         <v>1048.7190788333817</v>
@@ -5727,16 +5724,16 @@
     </row>
     <row r="177" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E177" s="5">
         <v>1042.4445544281273</v>
@@ -5750,16 +5747,16 @@
     </row>
     <row r="178" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E178" s="5">
         <v>1038.0464720773182</v>
@@ -5773,16 +5770,16 @@
     </row>
     <row r="179" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E179" s="5">
         <v>1028.6002226819608</v>
@@ -5796,16 +5793,16 @@
     </row>
     <row r="180" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E180" s="5">
         <v>1023.3439976745191</v>
@@ -5819,16 +5816,16 @@
     </row>
     <row r="181" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E181" s="5">
         <v>1018.20572352336</v>
@@ -5842,16 +5839,16 @@
     </row>
     <row r="182" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E182" s="5">
         <v>984.81198548008422</v>
@@ -5865,16 +5862,16 @@
     </row>
     <row r="183" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="E183" s="5">
         <v>959.8743603716066</v>
@@ -5888,16 +5885,16 @@
     </row>
     <row r="184" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E184" s="5">
         <v>953.73137968752462</v>
@@ -5911,16 +5908,16 @@
     </row>
     <row r="185" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E185" s="5">
         <v>952.077486242394</v>
@@ -5934,16 +5931,16 @@
     </row>
     <row r="186" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E186" s="5">
         <v>951.13611044208722</v>
@@ -5957,16 +5954,16 @@
     </row>
     <row r="187" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E187" s="5">
         <v>948.89035377279481</v>
@@ -5980,16 +5977,16 @@
     </row>
     <row r="188" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E188" s="5">
         <v>937.01334717369832</v>
@@ -6003,16 +6000,16 @@
     </row>
     <row r="189" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E189" s="5">
         <v>927.13027601007877</v>
@@ -6026,16 +6023,16 @@
     </row>
     <row r="190" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E190" s="5">
         <v>903.94776769204236</v>
@@ -6049,16 +6046,16 @@
     </row>
     <row r="191" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E191" s="5">
         <v>903.69041151078409</v>
@@ -6072,16 +6069,16 @@
     </row>
     <row r="192" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E192" s="5">
         <v>894.90776116793108</v>
@@ -6095,16 +6092,16 @@
     </row>
     <row r="193" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E193" s="5">
         <v>893.13944296171314</v>
@@ -6118,16 +6115,16 @@
     </row>
     <row r="194" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E194" s="5">
         <v>882.14494549021992</v>
@@ -6141,16 +6138,16 @@
     </row>
     <row r="195" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E195" s="5">
         <v>878.94077919496942</v>
@@ -6164,16 +6161,16 @@
     </row>
     <row r="196" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E196" s="5">
         <v>876.75778963633343</v>
@@ -6187,16 +6184,16 @@
     </row>
     <row r="197" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E197" s="5">
         <v>868.07696927035136</v>
@@ -6210,16 +6207,16 @@
     </row>
     <row r="198" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E198" s="5">
         <v>864.41221461962971</v>
@@ -6233,16 +6230,16 @@
     </row>
     <row r="199" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E199" s="5">
         <v>852.54004017151988</v>
@@ -6256,16 +6253,16 @@
     </row>
     <row r="200" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E200" s="5">
         <v>830.72850403306859</v>
@@ -6279,16 +6276,16 @@
     </row>
     <row r="201" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E201" s="5">
         <v>822.34701760060398</v>
@@ -6302,16 +6299,16 @@
     </row>
     <row r="202" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E202" s="5">
         <v>818.39823513352849</v>
@@ -6325,16 +6322,16 @@
     </row>
     <row r="203" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E203" s="5">
         <v>809.38504130548836</v>
@@ -6348,16 +6345,16 @@
     </row>
     <row r="204" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E204" s="5">
         <v>808.72697084736944</v>
@@ -6371,16 +6368,16 @@
     </row>
     <row r="205" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E205" s="5">
         <v>801.25526347266816</v>
@@ -6394,16 +6391,16 @@
     </row>
     <row r="206" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E206" s="5">
         <v>792.35210613376432</v>
@@ -6417,16 +6414,16 @@
     </row>
     <row r="207" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E207" s="5">
         <v>789.6982054818119</v>
@@ -6440,16 +6437,16 @@
     </row>
     <row r="208" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E208" s="5">
         <v>783.21042862893319</v>
@@ -6463,16 +6460,16 @@
     </row>
     <row r="209" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E209" s="5">
         <v>776.43501546958748</v>
@@ -6486,16 +6483,16 @@
     </row>
     <row r="210" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E210" s="5">
         <v>762.86166493146948</v>
@@ -6509,16 +6506,16 @@
     </row>
     <row r="211" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E211" s="5">
         <v>762.74813921720136</v>
@@ -6532,16 +6529,16 @@
     </row>
     <row r="212" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E212" s="5">
         <v>758.9890315029545</v>
@@ -6555,16 +6552,16 @@
     </row>
     <row r="213" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E213" s="5">
         <v>757.16124718013282</v>
@@ -6578,16 +6575,16 @@
     </row>
     <row r="214" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E214" s="5">
         <v>744.73839875908413</v>
@@ -6601,16 +6598,16 @@
     </row>
     <row r="215" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E215" s="5">
         <v>734.72690951591881</v>
@@ -6624,16 +6621,16 @@
     </row>
     <row r="216" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E216" s="5">
         <v>733.59210559177529</v>
@@ -6647,16 +6644,16 @@
     </row>
     <row r="217" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E217" s="5">
         <v>716.66781276998097</v>
@@ -6670,16 +6667,16 @@
     </row>
     <row r="218" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E218" s="5">
         <v>711.14150351729131</v>
@@ -6693,16 +6690,16 @@
     </row>
     <row r="219" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E219" s="5">
         <v>707.27482742611846</v>
@@ -6716,16 +6713,16 @@
     </row>
     <row r="220" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E220" s="5">
         <v>703.54401426973936</v>
@@ -6739,16 +6736,16 @@
     </row>
     <row r="221" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E221" s="5">
         <v>689.83493599445399</v>
@@ -6762,16 +6759,16 @@
     </row>
     <row r="222" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E222" s="5">
         <v>684.78627537726402</v>
@@ -6785,16 +6782,16 @@
     </row>
     <row r="223" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E223" s="5">
         <v>684.72267529378905</v>
@@ -6808,16 +6805,16 @@
     </row>
     <row r="224" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E224" s="5">
         <v>679.01667158310909</v>
@@ -6831,16 +6828,16 @@
     </row>
     <row r="225" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E225" s="5">
         <v>661.19569613579256</v>
@@ -6854,16 +6851,16 @@
     </row>
     <row r="226" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E226" s="5">
         <v>659.75871416124983</v>
@@ -6877,16 +6874,16 @@
     </row>
     <row r="227" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E227" s="5">
         <v>642.74948663011332</v>
@@ -6900,16 +6897,16 @@
     </row>
     <row r="228" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E228" s="5">
         <v>640.24254913502045</v>
@@ -6923,16 +6920,16 @@
     </row>
     <row r="229" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E229" s="5">
         <v>617.33391518416909</v>
@@ -6946,16 +6943,16 @@
     </row>
     <row r="230" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E230" s="5">
         <v>614.68030813984103</v>
@@ -6969,16 +6966,16 @@
     </row>
     <row r="231" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E231" s="5">
         <v>608.63542059228882</v>
@@ -6992,16 +6989,16 @@
     </row>
     <row r="232" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E232" s="5">
         <v>605.21049355282753</v>
@@ -7015,16 +7012,16 @@
     </row>
     <row r="233" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E233" s="5">
         <v>602.99587032850036</v>
@@ -7038,16 +7035,16 @@
     </row>
     <row r="234" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E234" s="5">
         <v>594.87591619145712</v>
@@ -7061,16 +7058,16 @@
     </row>
     <row r="235" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E235" s="5">
         <v>594.29362776561481</v>
@@ -7084,16 +7081,16 @@
     </row>
     <row r="236" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E236" s="5">
         <v>587.37754598489164</v>
@@ -7107,16 +7104,16 @@
     </row>
     <row r="237" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E237" s="5">
         <v>577.73019045720753</v>
@@ -7130,16 +7127,16 @@
     </row>
     <row r="238" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E238" s="5">
         <v>565.1557907275353</v>
@@ -7153,16 +7150,16 @@
     </row>
     <row r="239" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E239" s="5">
         <v>562.97118925899076</v>
@@ -7176,16 +7173,16 @@
     </row>
     <row r="240" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E240" s="5">
         <v>562.58598388005396</v>
@@ -7199,16 +7196,16 @@
     </row>
     <row r="241" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E241" s="5">
         <v>552.70142803772069</v>
@@ -7222,16 +7219,16 @@
     </row>
     <row r="242" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E242" s="5">
         <v>552.27288936151092</v>
@@ -7245,16 +7242,16 @@
     </row>
     <row r="243" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E243" s="5">
         <v>544.55133371734428</v>
@@ -7268,16 +7265,16 @@
     </row>
     <row r="244" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E244" s="5">
         <v>539.17546803171263</v>
@@ -7291,16 +7288,16 @@
     </row>
     <row r="245" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E245" s="5">
         <v>526.1854406686889</v>
@@ -7314,16 +7311,16 @@
     </row>
     <row r="246" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E246" s="5">
         <v>519.26043852549185</v>
@@ -7337,16 +7334,16 @@
     </row>
     <row r="247" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E247" s="5">
         <v>518.24128301625694</v>
@@ -7360,16 +7357,16 @@
     </row>
     <row r="248" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E248" s="5">
         <v>517.53553099228168</v>
@@ -7383,16 +7380,16 @@
     </row>
     <row r="249" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E249" s="5">
         <v>516.76796588512138</v>
@@ -7406,16 +7403,16 @@
     </row>
     <row r="250" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E250" s="5">
         <v>512.73333544839136</v>
@@ -7429,16 +7426,16 @@
     </row>
     <row r="251" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E251" s="5">
         <v>510.52529384501071</v>
@@ -7452,16 +7449,16 @@
     </row>
     <row r="252" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E252" s="5">
         <v>504.68383096240137</v>
@@ -7475,16 +7472,16 @@
     </row>
     <row r="253" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E253" s="5">
         <v>502.36422135135865</v>
@@ -7498,16 +7495,16 @@
     </row>
     <row r="254" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E254" s="5">
         <v>492.15821206163895</v>
@@ -7521,16 +7518,16 @@
     </row>
     <row r="255" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E255" s="5">
         <v>488.77171866961754</v>
@@ -7544,16 +7541,16 @@
     </row>
     <row r="256" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E256" s="5">
         <v>482.21388970968752</v>
@@ -7567,16 +7564,16 @@
     </row>
     <row r="257" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E257" s="5">
         <v>480.84864312664462</v>
@@ -7590,16 +7587,16 @@
     </row>
     <row r="258" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E258" s="5">
         <v>479.03606586125807</v>
@@ -7613,16 +7610,16 @@
     </row>
     <row r="259" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E259" s="5">
         <v>476.43878860940009</v>
@@ -7636,16 +7633,16 @@
     </row>
     <row r="260" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E260" s="5">
         <v>472.9764760342286</v>
@@ -7659,16 +7656,16 @@
     </row>
     <row r="261" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E261" s="5">
         <v>471.37726965705968</v>
@@ -7682,16 +7679,16 @@
     </row>
     <row r="262" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E262" s="5">
         <v>449.9982387475419</v>
@@ -7705,16 +7702,16 @@
     </row>
     <row r="263" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E263" s="5">
         <v>449.89278275054818</v>
@@ -7728,16 +7725,16 @@
     </row>
     <row r="264" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E264" s="5">
         <v>448.1190813509217</v>
@@ -7751,16 +7748,16 @@
     </row>
     <row r="265" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E265" s="5">
         <v>445.41475208378438</v>
@@ -7774,16 +7771,16 @@
     </row>
     <row r="266" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E266" s="5">
         <v>443.10518090933004</v>
@@ -7797,16 +7794,16 @@
     </row>
     <row r="267" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E267" s="5">
         <v>442.35417692647854</v>
@@ -7820,16 +7817,16 @@
     </row>
     <row r="268" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E268" s="5">
         <v>436.19521590173537</v>
@@ -7843,16 +7840,16 @@
     </row>
     <row r="269" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E269" s="5">
         <v>434.01244871620139</v>
@@ -7866,16 +7863,16 @@
     </row>
     <row r="270" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E270" s="5">
         <v>430.49393054541929</v>
@@ -7889,16 +7886,16 @@
     </row>
     <row r="271" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E271" s="5">
         <v>426.36074127499637</v>
@@ -7912,16 +7909,16 @@
     </row>
     <row r="272" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E272" s="5">
         <v>419.55598247987416</v>
@@ -7935,16 +7932,16 @@
     </row>
     <row r="273" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E273" s="5">
         <v>414.8098010417774</v>
@@ -7958,16 +7955,16 @@
     </row>
     <row r="274" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E274" s="5">
         <v>413.38766604998244</v>
@@ -7981,16 +7978,16 @@
     </row>
     <row r="275" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E275" s="5">
         <v>411.89177061116351</v>
@@ -8004,16 +8001,16 @@
     </row>
     <row r="276" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E276" s="5">
         <v>411.56803742920317</v>
@@ -8027,16 +8024,16 @@
     </row>
     <row r="277" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E277" s="5">
         <v>408.94950900905553</v>
@@ -8050,16 +8047,16 @@
     </row>
     <row r="278" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E278" s="5">
         <v>405.92422254197385</v>
@@ -8073,16 +8070,16 @@
     </row>
     <row r="279" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E279" s="5">
         <v>400.30981641083667</v>
@@ -8096,16 +8093,16 @@
     </row>
     <row r="280" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E280" s="5">
         <v>397.04546398527089</v>
@@ -8119,16 +8116,16 @@
     </row>
     <row r="281" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E281" s="5">
         <v>389.86050895320346</v>
@@ -8142,16 +8139,16 @@
     </row>
     <row r="282" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E282" s="5">
         <v>387.64486270772431</v>
@@ -8165,16 +8162,16 @@
     </row>
     <row r="283" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E283" s="5">
         <v>387.60986569784734</v>
@@ -8188,16 +8185,16 @@
     </row>
     <row r="284" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E284" s="5">
         <v>382.76277034423828</v>
@@ -8211,16 +8208,16 @@
     </row>
     <row r="285" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E285" s="5">
         <v>380.92117531176922</v>
@@ -8234,16 +8231,16 @@
     </row>
     <row r="286" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E286" s="5">
         <v>376.85763868982207</v>
@@ -8257,16 +8254,16 @@
     </row>
     <row r="287" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E287" s="5">
         <v>376.5332841735455</v>
@@ -8280,16 +8277,16 @@
     </row>
     <row r="288" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E288" s="5">
         <v>373.94884544616264</v>
@@ -8303,16 +8300,16 @@
     </row>
     <row r="289" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E289" s="5">
         <v>372.48030524434512</v>
@@ -8326,16 +8323,16 @@
     </row>
     <row r="290" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E290" s="5">
         <v>372.38097062217958</v>
@@ -8349,16 +8346,16 @@
     </row>
     <row r="291" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E291" s="5">
         <v>371.83058307740703</v>
@@ -8372,16 +8369,16 @@
     </row>
     <row r="292" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E292" s="5">
         <v>369.30196346698676</v>
@@ -8395,16 +8392,16 @@
     </row>
     <row r="293" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E293" s="5">
         <v>364.16753527496974</v>
@@ -8418,16 +8415,16 @@
     </row>
     <row r="294" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E294" s="5">
         <v>362.94687686791997</v>
@@ -8441,16 +8438,16 @@
     </row>
     <row r="295" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E295" s="5">
         <v>350.57690760966733</v>
@@ -8464,16 +8461,16 @@
     </row>
     <row r="296" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E296" s="5">
         <v>350.24669069310778</v>
@@ -8487,16 +8484,16 @@
     </row>
     <row r="297" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E297" s="5">
         <v>349.53541427666636</v>
@@ -8510,16 +8507,16 @@
     </row>
     <row r="298" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E298" s="5">
         <v>339.87714026187666</v>
@@ -8533,16 +8530,16 @@
     </row>
     <row r="299" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E299" s="5">
         <v>334.88027533469426</v>
@@ -8556,16 +8553,16 @@
     </row>
     <row r="300" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E300" s="5">
         <v>331.86700579125619</v>
@@ -8579,16 +8576,16 @@
     </row>
     <row r="301" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E301" s="5">
         <v>331.42821117044753</v>
@@ -8602,16 +8599,16 @@
     </row>
     <row r="302" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E302" s="5">
         <v>329.82412705338089</v>
@@ -8625,16 +8622,16 @@
     </row>
     <row r="303" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E303" s="5">
         <v>326.20051164250418</v>
@@ -8648,16 +8645,16 @@
     </row>
     <row r="304" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E304" s="5">
         <v>324.11272235361076</v>
@@ -8671,16 +8668,16 @@
     </row>
     <row r="305" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E305" s="5">
         <v>323.03262126207619</v>
@@ -8694,16 +8691,16 @@
     </row>
     <row r="306" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E306" s="5">
         <v>322.29556707381738</v>
@@ -8717,16 +8714,16 @@
     </row>
     <row r="307" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E307" s="5">
         <v>320.09978532643055</v>
@@ -8740,16 +8737,16 @@
     </row>
     <row r="308" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E308" s="5">
         <v>314.97900859207533</v>
@@ -8763,16 +8760,16 @@
     </row>
     <row r="309" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E309" s="5">
         <v>310.55234619680937</v>
@@ -8786,16 +8783,16 @@
     </row>
     <row r="310" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E310" s="5">
         <v>309.51314273064418</v>
@@ -8809,16 +8806,16 @@
     </row>
     <row r="311" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E311" s="5">
         <v>308.57851461614626</v>
@@ -8832,16 +8829,16 @@
     </row>
     <row r="312" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E312" s="5">
         <v>306.9453388647446</v>
@@ -8855,16 +8852,16 @@
     </row>
     <row r="313" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E313" s="5">
         <v>303.73477129899896</v>
@@ -8878,16 +8875,16 @@
     </row>
     <row r="314" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E314" s="5">
         <v>301.39468935897224</v>
@@ -8901,16 +8898,16 @@
     </row>
     <row r="315" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E315" s="5">
         <v>299.05637380753217</v>
@@ -8924,16 +8921,16 @@
     </row>
     <row r="316" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E316" s="5">
         <v>291.27341707397397</v>
@@ -8947,16 +8944,16 @@
     </row>
     <row r="317" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E317" s="5">
         <v>284.56592363375427</v>
@@ -8970,16 +8967,16 @@
     </row>
     <row r="318" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E318" s="5">
         <v>280.12849066731468</v>
@@ -8993,16 +8990,16 @@
     </row>
     <row r="319" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E319" s="5">
         <v>279.3254318069948</v>
@@ -9016,16 +9013,16 @@
     </row>
     <row r="320" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E320" s="5">
         <v>274.74012612827943</v>
@@ -9039,16 +9036,16 @@
     </row>
     <row r="321" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E321" s="5">
         <v>271.52418628821886</v>
@@ -9062,16 +9059,16 @@
     </row>
     <row r="322" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E322" s="5">
         <v>267.57066841162975</v>
@@ -9085,16 +9082,16 @@
     </row>
     <row r="323" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E323" s="5">
         <v>258.95316574451442</v>
@@ -9108,16 +9105,16 @@
     </row>
     <row r="324" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E324" s="5">
         <v>255.21746759122297</v>
@@ -9131,16 +9128,16 @@
     </row>
     <row r="325" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E325" s="5">
         <v>253.64200249343241</v>
@@ -9154,16 +9151,16 @@
     </row>
     <row r="326" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="D326" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E326" s="5">
         <v>249.53318118155701</v>
@@ -9177,16 +9174,16 @@
     </row>
     <row r="327" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="D327" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E327" s="5">
         <v>248.293142183979</v>
@@ -9200,16 +9197,16 @@
     </row>
     <row r="328" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E328" s="5">
         <v>245.63381991782376</v>
@@ -9223,16 +9220,16 @@
     </row>
     <row r="329" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E329" s="5">
         <v>232.42988699731626</v>
@@ -9246,16 +9243,16 @@
     </row>
     <row r="330" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="D330" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E330" s="5">
         <v>227.22003849177779</v>
@@ -9269,16 +9266,16 @@
     </row>
     <row r="331" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>365</v>
+        <v>338</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E331" s="5">
         <v>224.9732617846341</v>
@@ -9292,16 +9289,16 @@
     </row>
     <row r="332" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E332" s="5">
         <v>216.41179439283329</v>
@@ -9315,16 +9312,16 @@
     </row>
     <row r="333" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="D333" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E333" s="5">
         <v>212.63959369468952</v>
@@ -9338,16 +9335,16 @@
     </row>
     <row r="334" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="D334" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E334" s="5">
         <v>211.20058076739571</v>
@@ -9361,16 +9358,16 @@
     </row>
     <row r="335" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>369</v>
+        <v>342</v>
       </c>
       <c r="D335" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E335" s="5">
         <v>204.23005637939363</v>
@@ -9384,16 +9381,16 @@
     </row>
     <row r="336" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>370</v>
+        <v>343</v>
       </c>
       <c r="D336" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E336" s="5">
         <v>202.67470094379968</v>
@@ -9407,16 +9404,16 @@
     </row>
     <row r="337" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>371</v>
+        <v>344</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E337" s="5">
         <v>195.73052852351003</v>
@@ -9430,16 +9427,16 @@
     </row>
     <row r="338" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="D338" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E338" s="5">
         <v>193.39742771982628</v>
@@ -9453,16 +9450,16 @@
     </row>
     <row r="339" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="D339" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E339" s="5">
         <v>187.38861872886326</v>
@@ -9476,16 +9473,16 @@
     </row>
     <row r="340" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="D340" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E340" s="5">
         <v>180.1584991065736</v>
@@ -9499,16 +9496,16 @@
     </row>
     <row r="341" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="D341" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E341" s="5">
         <v>179.38623832142724</v>
@@ -9522,16 +9519,16 @@
     </row>
     <row r="342" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="D342" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E342" s="5">
         <v>175.03817212225215</v>
@@ -9545,16 +9542,16 @@
     </row>
     <row r="343" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="D343" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E343" s="5">
         <v>174.92362277781277</v>
@@ -9568,16 +9565,16 @@
     </row>
     <row r="344" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="D344" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E344" s="5">
         <v>170.70309461901726</v>
@@ -9591,16 +9588,16 @@
     </row>
     <row r="345" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="D345" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E345" s="5">
         <v>168.54594417585466</v>
@@ -9614,16 +9611,16 @@
     </row>
     <row r="346" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="D346" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E346" s="5">
         <v>163.62721224814686</v>
@@ -9637,16 +9634,16 @@
     </row>
     <row r="347" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="D347" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E347" s="5">
         <v>158.09407022939672</v>
@@ -9660,16 +9657,16 @@
     </row>
     <row r="348" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="D348" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E348" s="5">
         <v>151.28757191410099</v>
@@ -9683,16 +9680,16 @@
     </row>
     <row r="349" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="D349" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E349" s="5">
         <v>134.65436892599524</v>
@@ -9706,16 +9703,16 @@
     </row>
     <row r="350" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="D350" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E350" s="5">
         <v>132.90670430338255</v>
@@ -9729,16 +9726,16 @@
     </row>
     <row r="351" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="D351" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E351" s="5">
         <v>127.92327742918395</v>
@@ -9752,16 +9749,16 @@
     </row>
     <row r="352" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>386</v>
+        <v>359</v>
       </c>
       <c r="D352" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E352" s="5">
         <v>127.86446118531484</v>
@@ -9775,16 +9772,16 @@
     </row>
     <row r="353" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
       <c r="D353" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E353" s="5">
         <v>125.97949661453055</v>
@@ -9798,16 +9795,16 @@
     </row>
     <row r="354" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="D354" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E354" s="5">
         <v>109.93554864996443</v>
@@ -9821,16 +9818,16 @@
     </row>
     <row r="355" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
       <c r="D355" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E355" s="5">
         <v>107.76930655861366</v>
@@ -9844,16 +9841,16 @@
     </row>
     <row r="356" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="D356" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E356" s="5">
         <v>104.27005293324332</v>
@@ -9867,16 +9864,16 @@
     </row>
     <row r="357" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="D357" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E357" s="5">
         <v>101.91720485587953</v>
@@ -9890,16 +9887,16 @@
     </row>
     <row r="358" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="D358" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E358" s="5">
         <v>93.257989403079677</v>
@@ -9913,16 +9910,16 @@
     </row>
     <row r="359" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="D359" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E359" s="5">
         <v>92.236867910538635</v>
@@ -9936,16 +9933,16 @@
     </row>
     <row r="360" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="D360" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E360" s="5">
         <v>91.988099320541735</v>
@@ -9959,16 +9956,16 @@
     </row>
     <row r="361" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="D361" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E361" s="5">
         <v>84.814686197643653</v>
@@ -9982,16 +9979,16 @@
     </row>
     <row r="362" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="D362" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E362" s="5">
         <v>76.979041448517194</v>
@@ -10005,16 +10002,16 @@
     </row>
     <row r="363" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="D363" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E363" s="5">
         <v>69.808584524650129</v>
@@ -10028,16 +10025,16 @@
     </row>
     <row r="364" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="D364" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E364" s="5">
         <v>60.656024995917463</v>
@@ -10051,16 +10048,16 @@
     </row>
     <row r="365" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="D365" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E365" s="5">
         <v>40.549734244751825</v>
@@ -10074,16 +10071,16 @@
     </row>
     <row r="366" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="D366" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E366" s="5">
         <v>35.715457321188467</v>
@@ -10097,16 +10094,16 @@
     </row>
     <row r="367" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>400</v>
+        <v>373</v>
       </c>
       <c r="D367" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E367" s="5">
         <v>27.895465286737313</v>
@@ -10120,16 +10117,16 @@
     </row>
     <row r="368" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="4" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="D368" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E368" s="5">
         <v>675.11378098130513</v>
@@ -10144,7 +10141,7 @@
   </sheetData>
   <autoFilter ref="A1:G368" xr:uid="{597B28D8-C9D9-4CED-941C-CB20DD1DB1F0}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G368">
-      <sortCondition ref="A1:A368"/>
+      <sortCondition descending="1" ref="F1:F368"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/main_project/input/routes.xlsx
+++ b/main_project/input/routes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\Documents\GitHub\tcc\main_project\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A4456F-E249-4F9A-9F53-1AC0E38D57FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6505505F-1AE0-4112-AD7F-04140194A2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B6131046-DEA8-432B-848C-1CFAC60494D3}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="routes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">routes!$A$1:$F$368</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">routes!$A$1:$F$378</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="400">
   <si>
     <t>demand</t>
   </si>
@@ -1655,11 +1655,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597B28D8-C9D9-4CED-941C-CB20DD1DB1F0}">
-  <dimension ref="A1:G368"/>
+  <dimension ref="A1:G378"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1722,22 +1722,22 @@
     </row>
     <row r="3" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>83</v>
+        <v>374</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>375</v>
+        <v>83</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="5">
-        <v>410.01918821484685</v>
+        <v>745.66001693462886</v>
       </c>
       <c r="F3" s="5">
-        <v>119724</v>
+        <v>324752</v>
       </c>
       <c r="G3" s="7">
         <v>5000</v>
@@ -1751,16 +1751,16 @@
         <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E4" s="5">
-        <v>349.7495022626872</v>
+        <v>410.01918821484685</v>
       </c>
       <c r="F4" s="5">
-        <v>8658</v>
+        <v>119724</v>
       </c>
       <c r="G4" s="7">
         <v>5000</v>
@@ -1768,22 +1768,22 @@
     </row>
     <row r="5" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>83</v>
+        <v>375</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>377</v>
+        <v>83</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E5" s="5">
-        <v>390.38026465278921</v>
+        <v>410.01918821484685</v>
       </c>
       <c r="F5" s="5">
-        <v>473</v>
+        <v>119724</v>
       </c>
       <c r="G5" s="7">
         <v>5000</v>
@@ -1791,22 +1791,22 @@
     </row>
     <row r="6" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>83</v>
+        <v>376</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6" s="5">
-        <v>1217.4302362536803</v>
+        <v>349.7495022626872</v>
       </c>
       <c r="F6" s="5">
-        <v>234</v>
+        <v>8658</v>
       </c>
       <c r="G6" s="7">
         <v>5000</v>
@@ -1814,22 +1814,22 @@
     </row>
     <row r="7" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>83</v>
+        <v>376</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>378</v>
+        <v>83</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E7" s="5">
-        <v>1063.0447992510849</v>
+        <v>349.7495022626872</v>
       </c>
       <c r="F7" s="5">
-        <v>201</v>
+        <v>8658</v>
       </c>
       <c r="G7" s="7">
         <v>5000</v>
@@ -1843,16 +1843,16 @@
         <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E8" s="5">
-        <v>398.37561542935725</v>
+        <v>390.38026465278921</v>
       </c>
       <c r="F8" s="5">
-        <v>119</v>
+        <v>473</v>
       </c>
       <c r="G8" s="7">
         <v>5000</v>
@@ -1860,22 +1860,22 @@
     </row>
     <row r="9" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>380</v>
+        <v>83</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E9" s="5">
-        <v>249.12701665567963</v>
+        <v>390.38026465278921</v>
       </c>
       <c r="F9" s="5">
-        <v>73</v>
+        <v>473</v>
       </c>
       <c r="G9" s="7">
         <v>5000</v>
@@ -1883,22 +1883,22 @@
     </row>
     <row r="10" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>381</v>
+        <v>83</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" s="5">
-        <v>1325.8839930990498</v>
+        <v>1217.4302362536803</v>
       </c>
       <c r="F10" s="5">
-        <v>37</v>
+        <v>234</v>
       </c>
       <c r="G10" s="7">
         <v>5000</v>
@@ -1912,16 +1912,16 @@
         <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>382</v>
+        <v>56</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E11" s="5">
-        <v>393.20954149004848</v>
+        <v>1217.4302362536803</v>
       </c>
       <c r="F11" s="5">
-        <v>37</v>
+        <v>234</v>
       </c>
       <c r="G11" s="7">
         <v>5000</v>
@@ -1929,22 +1929,22 @@
     </row>
     <row r="12" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>83</v>
+        <v>378</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E12" s="5">
-        <v>2595.3476561217421</v>
+        <v>1063.0447992510849</v>
       </c>
       <c r="F12" s="5">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="G12" s="7">
         <v>5000</v>
@@ -1952,10 +1952,10 @@
     </row>
     <row r="13" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>34</v>
+        <v>378</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>83</v>
@@ -1964,10 +1964,10 @@
         <v>15</v>
       </c>
       <c r="E13" s="5">
-        <v>625.06136504981976</v>
+        <v>1063.0447992510849</v>
       </c>
       <c r="F13" s="5">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7">
         <v>5000</v>
@@ -1975,22 +1975,22 @@
     </row>
     <row r="14" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>83</v>
+        <v>379</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="5">
-        <v>799.11653091287917</v>
+        <v>398.37561542935725</v>
       </c>
       <c r="F14" s="5">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="G14" s="7">
         <v>5000</v>
@@ -1998,10 +1998,10 @@
     </row>
     <row r="15" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>36</v>
+        <v>379</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>83</v>
@@ -2010,10 +2010,10 @@
         <v>15</v>
       </c>
       <c r="E15" s="5">
-        <v>2296.2051433357592</v>
+        <v>398.37561542935725</v>
       </c>
       <c r="F15" s="5">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="G15" s="7">
         <v>5000</v>
@@ -2021,22 +2021,22 @@
     </row>
     <row r="16" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>83</v>
+        <v>380</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E16" s="5">
-        <v>1186.1948534685171</v>
+        <v>249.12701665567963</v>
       </c>
       <c r="F16" s="5">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="G16" s="7">
         <v>5000</v>
@@ -2044,10 +2044,10 @@
     </row>
     <row r="17" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>38</v>
+        <v>380</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>83</v>
@@ -2056,10 +2056,10 @@
         <v>15</v>
       </c>
       <c r="E17" s="5">
-        <v>729.73941775398407</v>
+        <v>249.12701665567963</v>
       </c>
       <c r="F17" s="5">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="G17" s="7">
         <v>5000</v>
@@ -2067,22 +2067,22 @@
     </row>
     <row r="18" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>83</v>
+        <v>381</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E18" s="5">
-        <v>772.28707793647891</v>
+        <v>1325.8839930990498</v>
       </c>
       <c r="F18" s="5">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7">
         <v>5000</v>
@@ -2090,10 +2090,10 @@
     </row>
     <row r="19" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>40</v>
+        <v>381</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>83</v>
@@ -2102,10 +2102,10 @@
         <v>15</v>
       </c>
       <c r="E19" s="5">
-        <v>234.42904942862396</v>
+        <v>1325.8839930990498</v>
       </c>
       <c r="F19" s="5">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G19" s="7">
         <v>5000</v>
@@ -2113,22 +2113,22 @@
     </row>
     <row r="20" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>83</v>
+        <v>382</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="5">
-        <v>412.26188769529864</v>
+        <v>393.20954149004848</v>
       </c>
       <c r="F20" s="5">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G20" s="7">
         <v>5000</v>
@@ -2136,10 +2136,10 @@
     </row>
     <row r="21" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>42</v>
+        <v>382</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>83</v>
@@ -2148,10 +2148,10 @@
         <v>15</v>
       </c>
       <c r="E21" s="5">
-        <v>2425.3893312541509</v>
+        <v>393.20954149004848</v>
       </c>
       <c r="F21" s="5">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G21" s="7">
         <v>5000</v>
@@ -2159,10 +2159,10 @@
     </row>
     <row r="22" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>83</v>
@@ -2171,7 +2171,7 @@
         <v>15</v>
       </c>
       <c r="E22" s="5">
-        <v>2262.042687260946</v>
+        <v>2595.3476561217421</v>
       </c>
       <c r="F22" s="5">
         <v>0</v>
@@ -2182,10 +2182,10 @@
     </row>
     <row r="23" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>83</v>
@@ -2194,7 +2194,7 @@
         <v>15</v>
       </c>
       <c r="E23" s="5">
-        <v>436.29034315855267</v>
+        <v>625.06136504981976</v>
       </c>
       <c r="F23" s="5">
         <v>0</v>
@@ -2205,10 +2205,10 @@
     </row>
     <row r="24" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>83</v>
@@ -2217,7 +2217,7 @@
         <v>15</v>
       </c>
       <c r="E24" s="5">
-        <v>370.93806322768177</v>
+        <v>799.11653091287917</v>
       </c>
       <c r="F24" s="5">
         <v>0</v>
@@ -2228,10 +2228,10 @@
     </row>
     <row r="25" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>83</v>
@@ -2240,7 +2240,7 @@
         <v>15</v>
       </c>
       <c r="E25" s="5">
-        <v>748.5608435703906</v>
+        <v>2296.2051433357592</v>
       </c>
       <c r="F25" s="5">
         <v>0</v>
@@ -2251,10 +2251,10 @@
     </row>
     <row r="26" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>83</v>
@@ -2263,7 +2263,7 @@
         <v>15</v>
       </c>
       <c r="E26" s="5">
-        <v>2521.8662949170662</v>
+        <v>1186.1948534685171</v>
       </c>
       <c r="F26" s="5">
         <v>0</v>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="27" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>8</v>
@@ -2286,7 +2286,7 @@
         <v>15</v>
       </c>
       <c r="E27" s="5">
-        <v>751.50950530341697</v>
+        <v>729.73941775398407</v>
       </c>
       <c r="F27" s="5">
         <v>0</v>
@@ -2297,10 +2297,10 @@
     </row>
     <row r="28" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>83</v>
@@ -2309,7 +2309,7 @@
         <v>15</v>
       </c>
       <c r="E28" s="5">
-        <v>2679.0201549074063</v>
+        <v>772.28707793647891</v>
       </c>
       <c r="F28" s="5">
         <v>0</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="29" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>11</v>
@@ -2332,7 +2332,7 @@
         <v>15</v>
       </c>
       <c r="E29" s="5">
-        <v>493.72762842884413</v>
+        <v>234.42904942862396</v>
       </c>
       <c r="F29" s="5">
         <v>0</v>
@@ -2343,10 +2343,10 @@
     </row>
     <row r="30" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>83</v>
@@ -2355,7 +2355,7 @@
         <v>15</v>
       </c>
       <c r="E30" s="5">
-        <v>1253.8220876530738</v>
+        <v>412.26188769529864</v>
       </c>
       <c r="F30" s="5">
         <v>0</v>
@@ -2366,10 +2366,10 @@
     </row>
     <row r="31" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>83</v>
@@ -2378,7 +2378,7 @@
         <v>15</v>
       </c>
       <c r="E31" s="5">
-        <v>1854.6194481212106</v>
+        <v>2425.3893312541509</v>
       </c>
       <c r="F31" s="5">
         <v>0</v>
@@ -2389,10 +2389,10 @@
     </row>
     <row r="32" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>83</v>
@@ -2401,7 +2401,7 @@
         <v>15</v>
       </c>
       <c r="E32" s="5">
-        <v>837.17240145069923</v>
+        <v>2262.042687260946</v>
       </c>
       <c r="F32" s="5">
         <v>0</v>
@@ -2412,10 +2412,10 @@
     </row>
     <row r="33" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>83</v>
@@ -2424,7 +2424,7 @@
         <v>15</v>
       </c>
       <c r="E33" s="5">
-        <v>661.75905555564077</v>
+        <v>436.29034315855267</v>
       </c>
       <c r="F33" s="5">
         <v>0</v>
@@ -2435,10 +2435,10 @@
     </row>
     <row r="34" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>83</v>
@@ -2447,7 +2447,7 @@
         <v>15</v>
       </c>
       <c r="E34" s="5">
-        <v>2897.7393268651672</v>
+        <v>370.93806322768177</v>
       </c>
       <c r="F34" s="5">
         <v>0</v>
@@ -2458,10 +2458,10 @@
     </row>
     <row r="35" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>83</v>
@@ -2470,7 +2470,7 @@
         <v>15</v>
       </c>
       <c r="E35" s="5">
-        <v>261.88440323314916</v>
+        <v>748.5608435703906</v>
       </c>
       <c r="F35" s="5">
         <v>0</v>
@@ -2481,10 +2481,10 @@
     </row>
     <row r="36" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>83</v>
@@ -2493,7 +2493,7 @@
         <v>15</v>
       </c>
       <c r="E36" s="5">
-        <v>689.94588178982235</v>
+        <v>2521.8662949170662</v>
       </c>
       <c r="F36" s="5">
         <v>0</v>
@@ -2504,10 +2504,10 @@
     </row>
     <row r="37" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>83</v>
@@ -2516,7 +2516,7 @@
         <v>15</v>
       </c>
       <c r="E37" s="5">
-        <v>355.15573164673134</v>
+        <v>751.50950530341697</v>
       </c>
       <c r="F37" s="5">
         <v>0</v>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="38" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>83</v>
@@ -2539,7 +2539,7 @@
         <v>15</v>
       </c>
       <c r="E38" s="5">
-        <v>3442.6110672443556</v>
+        <v>2679.0201549074063</v>
       </c>
       <c r="F38" s="5">
         <v>0</v>
@@ -2550,10 +2550,10 @@
     </row>
     <row r="39" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>83</v>
@@ -2562,7 +2562,7 @@
         <v>15</v>
       </c>
       <c r="E39" s="5">
-        <v>629.48122265089341</v>
+        <v>493.72762842884413</v>
       </c>
       <c r="F39" s="5">
         <v>0</v>
@@ -2573,10 +2573,10 @@
     </row>
     <row r="40" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>83</v>
@@ -2585,7 +2585,7 @@
         <v>15</v>
       </c>
       <c r="E40" s="5">
-        <v>771.84686244667603</v>
+        <v>1253.8220876530738</v>
       </c>
       <c r="F40" s="5">
         <v>0</v>
@@ -2596,10 +2596,10 @@
     </row>
     <row r="41" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>83</v>
@@ -2608,7 +2608,7 @@
         <v>15</v>
       </c>
       <c r="E41" s="5">
-        <v>1344.6449886238597</v>
+        <v>1854.6194481212106</v>
       </c>
       <c r="F41" s="5">
         <v>0</v>
@@ -2619,10 +2619,10 @@
     </row>
     <row r="42" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>83</v>
@@ -2631,7 +2631,7 @@
         <v>15</v>
       </c>
       <c r="E42" s="5">
-        <v>370.83740908187315</v>
+        <v>837.17240145069923</v>
       </c>
       <c r="F42" s="5">
         <v>0</v>
@@ -2642,10 +2642,10 @@
     </row>
     <row r="43" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>83</v>
@@ -2654,7 +2654,7 @@
         <v>15</v>
       </c>
       <c r="E43" s="5">
-        <v>1125.8289041507792</v>
+        <v>661.75905555564077</v>
       </c>
       <c r="F43" s="5">
         <v>0</v>
@@ -2665,10 +2665,10 @@
     </row>
     <row r="44" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>83</v>
@@ -2677,7 +2677,7 @@
         <v>15</v>
       </c>
       <c r="E44" s="5">
-        <v>834.44087241091722</v>
+        <v>2897.7393268651672</v>
       </c>
       <c r="F44" s="5">
         <v>0</v>
@@ -2688,10 +2688,10 @@
     </row>
     <row r="45" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>83</v>
@@ -2700,7 +2700,7 @@
         <v>15</v>
       </c>
       <c r="E45" s="5">
-        <v>2829.8216607331333</v>
+        <v>261.88440323314916</v>
       </c>
       <c r="F45" s="5">
         <v>0</v>
@@ -2711,10 +2711,10 @@
     </row>
     <row r="46" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>83</v>
@@ -2723,7 +2723,7 @@
         <v>15</v>
       </c>
       <c r="E46" s="5">
-        <v>768.65548949912386</v>
+        <v>689.94588178982235</v>
       </c>
       <c r="F46" s="5">
         <v>0</v>
@@ -2734,10 +2734,10 @@
     </row>
     <row r="47" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>83</v>
@@ -2746,7 +2746,7 @@
         <v>15</v>
       </c>
       <c r="E47" s="5">
-        <v>1297.7569707352523</v>
+        <v>355.15573164673134</v>
       </c>
       <c r="F47" s="5">
         <v>0</v>
@@ -2757,10 +2757,10 @@
     </row>
     <row r="48" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>83</v>
@@ -2769,7 +2769,7 @@
         <v>15</v>
       </c>
       <c r="E48" s="5">
-        <v>306.53834389328597</v>
+        <v>3442.6110672443556</v>
       </c>
       <c r="F48" s="5">
         <v>0</v>
@@ -2780,10 +2780,10 @@
     </row>
     <row r="49" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>83</v>
@@ -2792,7 +2792,7 @@
         <v>15</v>
       </c>
       <c r="E49" s="5">
-        <v>258.94290388379437</v>
+        <v>629.48122265089341</v>
       </c>
       <c r="F49" s="5">
         <v>0</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="50" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>8</v>
@@ -2815,7 +2815,7 @@
         <v>15</v>
       </c>
       <c r="E50" s="5">
-        <v>552.38853339009836</v>
+        <v>771.84686244667603</v>
       </c>
       <c r="F50" s="5">
         <v>0</v>
@@ -2826,10 +2826,10 @@
     </row>
     <row r="51" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>83</v>
@@ -2838,7 +2838,7 @@
         <v>15</v>
       </c>
       <c r="E51" s="5">
-        <v>389.02970089098744</v>
+        <v>1344.6449886238597</v>
       </c>
       <c r="F51" s="5">
         <v>0</v>
@@ -2849,7 +2849,7 @@
     </row>
     <row r="52" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>15</v>
@@ -2861,7 +2861,7 @@
         <v>15</v>
       </c>
       <c r="E52" s="5">
-        <v>106.46638344468955</v>
+        <v>370.83740908187315</v>
       </c>
       <c r="F52" s="5">
         <v>0</v>
@@ -2872,10 +2872,10 @@
     </row>
     <row r="53" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>83</v>
@@ -2884,7 +2884,7 @@
         <v>15</v>
       </c>
       <c r="E53" s="5">
-        <v>693.68652656037693</v>
+        <v>1125.8289041507792</v>
       </c>
       <c r="F53" s="5">
         <v>0</v>
@@ -2895,10 +2895,10 @@
     </row>
     <row r="54" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>83</v>
@@ -2907,7 +2907,7 @@
         <v>15</v>
       </c>
       <c r="E54" s="5">
-        <v>865.89058888368493</v>
+        <v>834.44087241091722</v>
       </c>
       <c r="F54" s="5">
         <v>0</v>
@@ -2918,10 +2918,10 @@
     </row>
     <row r="55" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>83</v>
@@ -2930,7 +2930,7 @@
         <v>15</v>
       </c>
       <c r="E55" s="5">
-        <v>2270.5236052157343</v>
+        <v>2829.8216607331333</v>
       </c>
       <c r="F55" s="5">
         <v>0</v>
@@ -2941,10 +2941,10 @@
     </row>
     <row r="56" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>83</v>
@@ -2953,7 +2953,7 @@
         <v>15</v>
       </c>
       <c r="E56" s="5">
-        <v>2732.234278355686</v>
+        <v>768.65548949912386</v>
       </c>
       <c r="F56" s="5">
         <v>0</v>
@@ -2964,10 +2964,10 @@
     </row>
     <row r="57" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>83</v>
@@ -2976,7 +2976,7 @@
         <v>15</v>
       </c>
       <c r="E57" s="5">
-        <v>251.43905417195143</v>
+        <v>1297.7569707352523</v>
       </c>
       <c r="F57" s="5">
         <v>0</v>
@@ -2987,10 +2987,10 @@
     </row>
     <row r="58" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>83</v>
@@ -2999,7 +2999,7 @@
         <v>15</v>
       </c>
       <c r="E58" s="5">
-        <v>1104.9532043148624</v>
+        <v>306.53834389328597</v>
       </c>
       <c r="F58" s="5">
         <v>0</v>
@@ -3010,10 +3010,10 @@
     </row>
     <row r="59" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>83</v>
@@ -3022,7 +3022,7 @@
         <v>15</v>
       </c>
       <c r="E59" s="5">
-        <v>716.39631313774146</v>
+        <v>258.94290388379437</v>
       </c>
       <c r="F59" s="5">
         <v>0</v>
@@ -3033,10 +3033,10 @@
     </row>
     <row r="60" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>83</v>
@@ -3045,7 +3045,7 @@
         <v>15</v>
       </c>
       <c r="E60" s="5">
-        <v>270.88375776283146</v>
+        <v>552.38853339009836</v>
       </c>
       <c r="F60" s="5">
         <v>0</v>
@@ -3056,19 +3056,19 @@
     </row>
     <row r="61" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>383</v>
+        <v>83</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E61" s="5">
-        <v>3027.5880567980762</v>
+        <v>389.02970089098744</v>
       </c>
       <c r="F61" s="5">
         <v>0</v>
@@ -3079,19 +3079,19 @@
     </row>
     <row r="62" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>384</v>
+        <v>83</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E62" s="5">
-        <v>2999.8447172811557</v>
+        <v>106.46638344468955</v>
       </c>
       <c r="F62" s="5">
         <v>0</v>
@@ -3102,19 +3102,19 @@
     </row>
     <row r="63" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>385</v>
+        <v>83</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E63" s="5">
-        <v>2998.9492853730103</v>
+        <v>693.68652656037693</v>
       </c>
       <c r="F63" s="5">
         <v>0</v>
@@ -3125,19 +3125,19 @@
     </row>
     <row r="64" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>386</v>
+        <v>83</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E64" s="5">
-        <v>2995.1822062655788</v>
+        <v>865.89058888368493</v>
       </c>
       <c r="F64" s="5">
         <v>0</v>
@@ -3148,19 +3148,19 @@
     </row>
     <row r="65" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>387</v>
+        <v>83</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E65" s="5">
-        <v>2979.9955400230833</v>
+        <v>2270.5236052157343</v>
       </c>
       <c r="F65" s="5">
         <v>0</v>
@@ -3171,19 +3171,19 @@
     </row>
     <row r="66" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>388</v>
+        <v>83</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E66" s="5">
-        <v>2973.0234144962674</v>
+        <v>2732.234278355686</v>
       </c>
       <c r="F66" s="5">
         <v>0</v>
@@ -3194,19 +3194,19 @@
     </row>
     <row r="67" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>389</v>
+        <v>83</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E67" s="5">
-        <v>2963.0386957399523</v>
+        <v>251.43905417195143</v>
       </c>
       <c r="F67" s="5">
         <v>0</v>
@@ -3217,19 +3217,19 @@
     </row>
     <row r="68" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>390</v>
+        <v>83</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E68" s="5">
-        <v>2935.6365593194291</v>
+        <v>1104.9532043148624</v>
       </c>
       <c r="F68" s="5">
         <v>0</v>
@@ -3240,19 +3240,19 @@
     </row>
     <row r="69" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>391</v>
+        <v>83</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E69" s="5">
-        <v>2928.9029367800395</v>
+        <v>716.39631313774146</v>
       </c>
       <c r="F69" s="5">
         <v>0</v>
@@ -3263,19 +3263,19 @@
     </row>
     <row r="70" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>392</v>
+        <v>83</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E70" s="5">
-        <v>2903.7017717769963</v>
+        <v>270.88375776283146</v>
       </c>
       <c r="F70" s="5">
         <v>0</v>
@@ -3292,13 +3292,13 @@
         <v>15</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E71" s="5">
-        <v>2873.1225684022052</v>
+        <v>3027.5880567980762</v>
       </c>
       <c r="F71" s="5">
         <v>0</v>
@@ -3315,13 +3315,13 @@
         <v>15</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E72" s="5">
-        <v>2857.8225488386825</v>
+        <v>2999.8447172811557</v>
       </c>
       <c r="F72" s="5">
         <v>0</v>
@@ -3338,13 +3338,13 @@
         <v>15</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E73" s="5">
-        <v>2855.5589413270313</v>
+        <v>2998.9492853730103</v>
       </c>
       <c r="F73" s="5">
         <v>0</v>
@@ -3361,13 +3361,13 @@
         <v>15</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E74" s="5">
-        <v>2842.3355984930372</v>
+        <v>2995.1822062655788</v>
       </c>
       <c r="F74" s="5">
         <v>0</v>
@@ -3384,13 +3384,13 @@
         <v>15</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E75" s="5">
-        <v>2820.6089130118808</v>
+        <v>2979.9955400230833</v>
       </c>
       <c r="F75" s="5">
         <v>0</v>
@@ -3407,13 +3407,13 @@
         <v>15</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E76" s="5">
-        <v>2811.3197142911981</v>
+        <v>2973.0234144962674</v>
       </c>
       <c r="F76" s="5">
         <v>0</v>
@@ -3430,13 +3430,13 @@
         <v>15</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E77" s="5">
-        <v>2791.9263611966453</v>
+        <v>2963.0386957399523</v>
       </c>
       <c r="F77" s="5">
         <v>0</v>
@@ -3453,13 +3453,13 @@
         <v>15</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>85</v>
+        <v>390</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E78" s="5">
-        <v>2789.8791175738756</v>
+        <v>2935.6365593194291</v>
       </c>
       <c r="F78" s="5">
         <v>0</v>
@@ -3476,13 +3476,13 @@
         <v>15</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>86</v>
+        <v>391</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E79" s="5">
-        <v>2789.1104499659341</v>
+        <v>2928.9029367800395</v>
       </c>
       <c r="F79" s="5">
         <v>0</v>
@@ -3499,13 +3499,13 @@
         <v>15</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>87</v>
+        <v>392</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E80" s="5">
-        <v>2756.8288275088753</v>
+        <v>2903.7017717769963</v>
       </c>
       <c r="F80" s="5">
         <v>0</v>
@@ -3522,13 +3522,13 @@
         <v>15</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>88</v>
+        <v>393</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E81" s="5">
-        <v>2728.1046048888138</v>
+        <v>2873.1225684022052</v>
       </c>
       <c r="F81" s="5">
         <v>0</v>
@@ -3545,13 +3545,13 @@
         <v>15</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>89</v>
+        <v>394</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E82" s="5">
-        <v>2723.4266176980059</v>
+        <v>2857.8225488386825</v>
       </c>
       <c r="F82" s="5">
         <v>0</v>
@@ -3568,13 +3568,13 @@
         <v>15</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>90</v>
+        <v>395</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E83" s="5">
-        <v>2694.4650758795628</v>
+        <v>2855.5589413270313</v>
       </c>
       <c r="F83" s="5">
         <v>0</v>
@@ -3591,13 +3591,13 @@
         <v>15</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>91</v>
+        <v>396</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E84" s="5">
-        <v>2666.7397953101145</v>
+        <v>2842.3355984930372</v>
       </c>
       <c r="F84" s="5">
         <v>0</v>
@@ -3614,13 +3614,13 @@
         <v>15</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>92</v>
+        <v>397</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E85" s="5">
-        <v>2652.8709864818593</v>
+        <v>2820.6089130118808</v>
       </c>
       <c r="F85" s="5">
         <v>0</v>
@@ -3637,13 +3637,13 @@
         <v>15</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>93</v>
+        <v>398</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E86" s="5">
-        <v>2641.1458787006686</v>
+        <v>2811.3197142911981</v>
       </c>
       <c r="F86" s="5">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         <v>15</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>94</v>
+        <v>399</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E87" s="5">
-        <v>2626.8764044933919</v>
+        <v>2791.9263611966453</v>
       </c>
       <c r="F87" s="5">
         <v>0</v>
@@ -3683,13 +3683,13 @@
         <v>15</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E88" s="5">
-        <v>2607.50768049812</v>
+        <v>2789.8791175738756</v>
       </c>
       <c r="F88" s="5">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>15</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E89" s="5">
-        <v>2603.3137756780061</v>
+        <v>2789.1104499659341</v>
       </c>
       <c r="F89" s="5">
         <v>0</v>
@@ -3729,13 +3729,13 @@
         <v>15</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E90" s="5">
-        <v>2569.9994760798609</v>
+        <v>2756.8288275088753</v>
       </c>
       <c r="F90" s="5">
         <v>0</v>
@@ -3752,13 +3752,13 @@
         <v>15</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E91" s="5">
-        <v>2522.5414579710023</v>
+        <v>2728.1046048888138</v>
       </c>
       <c r="F91" s="5">
         <v>0</v>
@@ -3775,13 +3775,13 @@
         <v>15</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E92" s="5">
-        <v>2485.4715797619979</v>
+        <v>2723.4266176980059</v>
       </c>
       <c r="F92" s="5">
         <v>0</v>
@@ -3798,13 +3798,13 @@
         <v>15</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E93" s="5">
-        <v>2448.8984497678089</v>
+        <v>2694.4650758795628</v>
       </c>
       <c r="F93" s="5">
         <v>0</v>
@@ -3821,13 +3821,13 @@
         <v>15</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E94" s="5">
-        <v>2390.7896298068663</v>
+        <v>2666.7397953101145</v>
       </c>
       <c r="F94" s="5">
         <v>0</v>
@@ -3844,13 +3844,13 @@
         <v>15</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E95" s="5">
-        <v>2364.9800175973528</v>
+        <v>2652.8709864818593</v>
       </c>
       <c r="F95" s="5">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>15</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E96" s="5">
-        <v>2354.964293744355</v>
+        <v>2641.1458787006686</v>
       </c>
       <c r="F96" s="5">
         <v>0</v>
@@ -3890,13 +3890,13 @@
         <v>15</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E97" s="5">
-        <v>2354.047557881996</v>
+        <v>2626.8764044933919</v>
       </c>
       <c r="F97" s="5">
         <v>0</v>
@@ -3913,13 +3913,13 @@
         <v>15</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E98" s="5">
-        <v>2348.8240398946969</v>
+        <v>2607.50768049812</v>
       </c>
       <c r="F98" s="5">
         <v>0</v>
@@ -3936,13 +3936,13 @@
         <v>15</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E99" s="5">
-        <v>2345.3349370133847</v>
+        <v>2603.3137756780061</v>
       </c>
       <c r="F99" s="5">
         <v>0</v>
@@ -3959,13 +3959,13 @@
         <v>15</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E100" s="5">
-        <v>2344.7994390095882</v>
+        <v>2569.9994760798609</v>
       </c>
       <c r="F100" s="5">
         <v>0</v>
@@ -3982,13 +3982,13 @@
         <v>15</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E101" s="5">
-        <v>2303.7500739265797</v>
+        <v>2522.5414579710023</v>
       </c>
       <c r="F101" s="5">
         <v>0</v>
@@ -4005,13 +4005,13 @@
         <v>15</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E102" s="5">
-        <v>2289.0726767234569</v>
+        <v>2485.4715797619979</v>
       </c>
       <c r="F102" s="5">
         <v>0</v>
@@ -4028,13 +4028,13 @@
         <v>15</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E103" s="5">
-        <v>2205.8666259882907</v>
+        <v>2448.8984497678089</v>
       </c>
       <c r="F103" s="5">
         <v>0</v>
@@ -4051,13 +4051,13 @@
         <v>15</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E104" s="5">
-        <v>2194.1690928126095</v>
+        <v>2390.7896298068663</v>
       </c>
       <c r="F104" s="5">
         <v>0</v>
@@ -4074,13 +4074,13 @@
         <v>15</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E105" s="5">
-        <v>2185.1921773626291</v>
+        <v>2364.9800175973528</v>
       </c>
       <c r="F105" s="5">
         <v>0</v>
@@ -4097,13 +4097,13 @@
         <v>15</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E106" s="5">
-        <v>2174.5818261357508</v>
+        <v>2354.964293744355</v>
       </c>
       <c r="F106" s="5">
         <v>0</v>
@@ -4120,13 +4120,13 @@
         <v>15</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E107" s="5">
-        <v>2151.2389106825535</v>
+        <v>2354.047557881996</v>
       </c>
       <c r="F107" s="5">
         <v>0</v>
@@ -4143,13 +4143,13 @@
         <v>15</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E108" s="5">
-        <v>2142.2691261174568</v>
+        <v>2348.8240398946969</v>
       </c>
       <c r="F108" s="5">
         <v>0</v>
@@ -4166,13 +4166,13 @@
         <v>15</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E109" s="5">
-        <v>2133.3174381580193</v>
+        <v>2345.3349370133847</v>
       </c>
       <c r="F109" s="5">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>15</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E110" s="5">
-        <v>2094.4734978754418</v>
+        <v>2344.7994390095882</v>
       </c>
       <c r="F110" s="5">
         <v>0</v>
@@ -4212,13 +4212,13 @@
         <v>15</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E111" s="5">
-        <v>2080.9686935434065</v>
+        <v>2303.7500739265797</v>
       </c>
       <c r="F111" s="5">
         <v>0</v>
@@ -4235,13 +4235,13 @@
         <v>15</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E112" s="5">
-        <v>2047.41750028041</v>
+        <v>2289.0726767234569</v>
       </c>
       <c r="F112" s="5">
         <v>0</v>
@@ -4258,13 +4258,13 @@
         <v>15</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E113" s="5">
-        <v>2004.0754280760987</v>
+        <v>2205.8666259882907</v>
       </c>
       <c r="F113" s="5">
         <v>0</v>
@@ -4281,13 +4281,13 @@
         <v>15</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E114" s="5">
-        <v>1966.797138767025</v>
+        <v>2194.1690928126095</v>
       </c>
       <c r="F114" s="5">
         <v>0</v>
@@ -4304,13 +4304,13 @@
         <v>15</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E115" s="5">
-        <v>1966.4545682803459</v>
+        <v>2185.1921773626291</v>
       </c>
       <c r="F115" s="5">
         <v>0</v>
@@ -4327,13 +4327,13 @@
         <v>15</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E116" s="5">
-        <v>1966.2823739298708</v>
+        <v>2174.5818261357508</v>
       </c>
       <c r="F116" s="5">
         <v>0</v>
@@ -4350,13 +4350,13 @@
         <v>15</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E117" s="5">
-        <v>1954.8452381635047</v>
+        <v>2151.2389106825535</v>
       </c>
       <c r="F117" s="5">
         <v>0</v>
@@ -4373,13 +4373,13 @@
         <v>15</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E118" s="5">
-        <v>1953.7399974083503</v>
+        <v>2142.2691261174568</v>
       </c>
       <c r="F118" s="5">
         <v>0</v>
@@ -4396,13 +4396,13 @@
         <v>15</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E119" s="5">
-        <v>1950.6704639296456</v>
+        <v>2133.3174381580193</v>
       </c>
       <c r="F119" s="5">
         <v>0</v>
@@ -4419,13 +4419,13 @@
         <v>15</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E120" s="5">
-        <v>1938.8551502874584</v>
+        <v>2094.4734978754418</v>
       </c>
       <c r="F120" s="5">
         <v>0</v>
@@ -4442,13 +4442,13 @@
         <v>15</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E121" s="5">
-        <v>1926.5097545433887</v>
+        <v>2080.9686935434065</v>
       </c>
       <c r="F121" s="5">
         <v>0</v>
@@ -4465,13 +4465,13 @@
         <v>15</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E122" s="5">
-        <v>1914.1352843164582</v>
+        <v>2047.41750028041</v>
       </c>
       <c r="F122" s="5">
         <v>0</v>
@@ -4488,13 +4488,13 @@
         <v>15</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E123" s="5">
-        <v>1904.7967999359068</v>
+        <v>2004.0754280760987</v>
       </c>
       <c r="F123" s="5">
         <v>0</v>
@@ -4511,13 +4511,13 @@
         <v>15</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E124" s="5">
-        <v>1901.4945457291506</v>
+        <v>1966.797138767025</v>
       </c>
       <c r="F124" s="5">
         <v>0</v>
@@ -4534,13 +4534,13 @@
         <v>15</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E125" s="5">
-        <v>1845.1823814607053</v>
+        <v>1966.4545682803459</v>
       </c>
       <c r="F125" s="5">
         <v>0</v>
@@ -4557,13 +4557,13 @@
         <v>15</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E126" s="5">
-        <v>1836.3126484959041</v>
+        <v>1966.2823739298708</v>
       </c>
       <c r="F126" s="5">
         <v>0</v>
@@ -4580,13 +4580,13 @@
         <v>15</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E127" s="5">
-        <v>1831.0766498963042</v>
+        <v>1954.8452381635047</v>
       </c>
       <c r="F127" s="5">
         <v>0</v>
@@ -4603,13 +4603,13 @@
         <v>15</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E128" s="5">
-        <v>1813.9651810412029</v>
+        <v>1953.7399974083503</v>
       </c>
       <c r="F128" s="5">
         <v>0</v>
@@ -4626,13 +4626,13 @@
         <v>15</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E129" s="5">
-        <v>1801.7493374422197</v>
+        <v>1950.6704639296456</v>
       </c>
       <c r="F129" s="5">
         <v>0</v>
@@ -4649,13 +4649,13 @@
         <v>15</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E130" s="5">
-        <v>1800.5554838925027</v>
+        <v>1938.8551502874584</v>
       </c>
       <c r="F130" s="5">
         <v>0</v>
@@ -4672,13 +4672,13 @@
         <v>15</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E131" s="5">
-        <v>1782.610455666073</v>
+        <v>1926.5097545433887</v>
       </c>
       <c r="F131" s="5">
         <v>0</v>
@@ -4695,13 +4695,13 @@
         <v>15</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E132" s="5">
-        <v>1751.0452337216013</v>
+        <v>1914.1352843164582</v>
       </c>
       <c r="F132" s="5">
         <v>0</v>
@@ -4718,13 +4718,13 @@
         <v>15</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E133" s="5">
-        <v>1722.8526986841193</v>
+        <v>1904.7967999359068</v>
       </c>
       <c r="F133" s="5">
         <v>0</v>
@@ -4741,13 +4741,13 @@
         <v>15</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E134" s="5">
-        <v>1660.0887352802308</v>
+        <v>1901.4945457291506</v>
       </c>
       <c r="F134" s="5">
         <v>0</v>
@@ -4764,13 +4764,13 @@
         <v>15</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E135" s="5">
-        <v>1612.1823498887952</v>
+        <v>1845.1823814607053</v>
       </c>
       <c r="F135" s="5">
         <v>0</v>
@@ -4787,13 +4787,13 @@
         <v>15</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E136" s="5">
-        <v>1604.2142671871454</v>
+        <v>1836.3126484959041</v>
       </c>
       <c r="F136" s="5">
         <v>0</v>
@@ -4810,13 +4810,13 @@
         <v>15</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E137" s="5">
-        <v>1594.1206276994481</v>
+        <v>1831.0766498963042</v>
       </c>
       <c r="F137" s="5">
         <v>0</v>
@@ -4833,13 +4833,13 @@
         <v>15</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E138" s="5">
-        <v>1588.2807297859451</v>
+        <v>1813.9651810412029</v>
       </c>
       <c r="F138" s="5">
         <v>0</v>
@@ -4856,13 +4856,13 @@
         <v>15</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E139" s="5">
-        <v>1569.5160284835806</v>
+        <v>1801.7493374422197</v>
       </c>
       <c r="F139" s="5">
         <v>0</v>
@@ -4879,13 +4879,13 @@
         <v>15</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E140" s="5">
-        <v>1548.66831825745</v>
+        <v>1800.5554838925027</v>
       </c>
       <c r="F140" s="5">
         <v>0</v>
@@ -4902,13 +4902,13 @@
         <v>15</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E141" s="5">
-        <v>1508.2897960865757</v>
+        <v>1782.610455666073</v>
       </c>
       <c r="F141" s="5">
         <v>0</v>
@@ -4925,13 +4925,13 @@
         <v>15</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E142" s="5">
-        <v>1473.904188779597</v>
+        <v>1751.0452337216013</v>
       </c>
       <c r="F142" s="5">
         <v>0</v>
@@ -4948,13 +4948,13 @@
         <v>15</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E143" s="5">
-        <v>1472.6166989772112</v>
+        <v>1722.8526986841193</v>
       </c>
       <c r="F143" s="5">
         <v>0</v>
@@ -4971,13 +4971,13 @@
         <v>15</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E144" s="5">
-        <v>1472.5288677651242</v>
+        <v>1660.0887352802308</v>
       </c>
       <c r="F144" s="5">
         <v>0</v>
@@ -4994,13 +4994,13 @@
         <v>15</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E145" s="5">
-        <v>1470.5023152397919</v>
+        <v>1612.1823498887952</v>
       </c>
       <c r="F145" s="5">
         <v>0</v>
@@ -5017,13 +5017,13 @@
         <v>15</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E146" s="5">
-        <v>1459.2187738948403</v>
+        <v>1604.2142671871454</v>
       </c>
       <c r="F146" s="5">
         <v>0</v>
@@ -5040,13 +5040,13 @@
         <v>15</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E147" s="5">
-        <v>1447.6247242921734</v>
+        <v>1594.1206276994481</v>
       </c>
       <c r="F147" s="5">
         <v>0</v>
@@ -5063,13 +5063,13 @@
         <v>15</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E148" s="5">
-        <v>1430.7222461667677</v>
+        <v>1588.2807297859451</v>
       </c>
       <c r="F148" s="5">
         <v>0</v>
@@ -5086,13 +5086,13 @@
         <v>15</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E149" s="5">
-        <v>1424.4181291937448</v>
+        <v>1569.5160284835806</v>
       </c>
       <c r="F149" s="5">
         <v>0</v>
@@ -5109,13 +5109,13 @@
         <v>15</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E150" s="5">
-        <v>1342.6456132294472</v>
+        <v>1548.66831825745</v>
       </c>
       <c r="F150" s="5">
         <v>0</v>
@@ -5132,13 +5132,13 @@
         <v>15</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E151" s="5">
-        <v>1336.5421833422049</v>
+        <v>1508.2897960865757</v>
       </c>
       <c r="F151" s="5">
         <v>0</v>
@@ -5155,13 +5155,13 @@
         <v>15</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E152" s="5">
-        <v>1336.4579573529702</v>
+        <v>1473.904188779597</v>
       </c>
       <c r="F152" s="5">
         <v>0</v>
@@ -5178,13 +5178,13 @@
         <v>15</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E153" s="5">
-        <v>1311.201008465275</v>
+        <v>1472.6166989772112</v>
       </c>
       <c r="F153" s="5">
         <v>0</v>
@@ -5201,13 +5201,13 @@
         <v>15</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E154" s="5">
-        <v>1297.9378315544934</v>
+        <v>1472.5288677651242</v>
       </c>
       <c r="F154" s="5">
         <v>0</v>
@@ -5224,13 +5224,13 @@
         <v>15</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E155" s="5">
-        <v>1264.4555176419506</v>
+        <v>1470.5023152397919</v>
       </c>
       <c r="F155" s="5">
         <v>0</v>
@@ -5247,13 +5247,13 @@
         <v>15</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E156" s="5">
-        <v>1260.8537147302695</v>
+        <v>1459.2187738948403</v>
       </c>
       <c r="F156" s="5">
         <v>0</v>
@@ -5270,13 +5270,13 @@
         <v>15</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E157" s="5">
-        <v>1249.9784699446936</v>
+        <v>1447.6247242921734</v>
       </c>
       <c r="F157" s="5">
         <v>0</v>
@@ -5293,13 +5293,13 @@
         <v>15</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E158" s="5">
-        <v>1236.8018943231405</v>
+        <v>1430.7222461667677</v>
       </c>
       <c r="F158" s="5">
         <v>0</v>
@@ -5316,13 +5316,13 @@
         <v>15</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E159" s="5">
-        <v>1221.8630677331087</v>
+        <v>1424.4181291937448</v>
       </c>
       <c r="F159" s="5">
         <v>0</v>
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E160" s="5">
-        <v>1220.3953701271198</v>
+        <v>1342.6456132294472</v>
       </c>
       <c r="F160" s="5">
         <v>0</v>
@@ -5362,13 +5362,13 @@
         <v>15</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E161" s="5">
-        <v>1214.0138305911553</v>
+        <v>1336.5421833422049</v>
       </c>
       <c r="F161" s="5">
         <v>0</v>
@@ -5385,13 +5385,13 @@
         <v>15</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E162" s="5">
-        <v>1203.5248252487652</v>
+        <v>1336.4579573529702</v>
       </c>
       <c r="F162" s="5">
         <v>0</v>
@@ -5408,13 +5408,13 @@
         <v>15</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E163" s="5">
-        <v>1195.7884866079994</v>
+        <v>1311.201008465275</v>
       </c>
       <c r="F163" s="5">
         <v>0</v>
@@ -5431,13 +5431,13 @@
         <v>15</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E164" s="5">
-        <v>1192.0229408599475</v>
+        <v>1297.9378315544934</v>
       </c>
       <c r="F164" s="5">
         <v>0</v>
@@ -5454,13 +5454,13 @@
         <v>15</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E165" s="5">
-        <v>1155.8245743093723</v>
+        <v>1264.4555176419506</v>
       </c>
       <c r="F165" s="5">
         <v>0</v>
@@ -5477,13 +5477,13 @@
         <v>15</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E166" s="5">
-        <v>1153.8883450634803</v>
+        <v>1260.8537147302695</v>
       </c>
       <c r="F166" s="5">
         <v>0</v>
@@ -5500,13 +5500,13 @@
         <v>15</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E167" s="5">
-        <v>1149.8260210522769</v>
+        <v>1249.9784699446936</v>
       </c>
       <c r="F167" s="5">
         <v>0</v>
@@ -5523,13 +5523,13 @@
         <v>15</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E168" s="5">
-        <v>1147.0063524916293</v>
+        <v>1236.8018943231405</v>
       </c>
       <c r="F168" s="5">
         <v>0</v>
@@ -5546,13 +5546,13 @@
         <v>15</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E169" s="5">
-        <v>1146.072194648945</v>
+        <v>1221.8630677331087</v>
       </c>
       <c r="F169" s="5">
         <v>0</v>
@@ -5569,13 +5569,13 @@
         <v>15</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E170" s="5">
-        <v>1132.9544448099839</v>
+        <v>1220.3953701271198</v>
       </c>
       <c r="F170" s="5">
         <v>0</v>
@@ -5592,13 +5592,13 @@
         <v>15</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E171" s="5">
-        <v>1107.2489124665008</v>
+        <v>1214.0138305911553</v>
       </c>
       <c r="F171" s="5">
         <v>0</v>
@@ -5615,13 +5615,13 @@
         <v>15</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E172" s="5">
-        <v>1088.2164292826319</v>
+        <v>1203.5248252487652</v>
       </c>
       <c r="F172" s="5">
         <v>0</v>
@@ -5638,13 +5638,13 @@
         <v>15</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E173" s="5">
-        <v>1085.9761616838432</v>
+        <v>1195.7884866079994</v>
       </c>
       <c r="F173" s="5">
         <v>0</v>
@@ -5661,13 +5661,13 @@
         <v>15</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E174" s="5">
-        <v>1068.1292833100395</v>
+        <v>1192.0229408599475</v>
       </c>
       <c r="F174" s="5">
         <v>0</v>
@@ -5684,13 +5684,13 @@
         <v>15</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E175" s="5">
-        <v>1065.5190107531489</v>
+        <v>1155.8245743093723</v>
       </c>
       <c r="F175" s="5">
         <v>0</v>
@@ -5707,13 +5707,13 @@
         <v>15</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E176" s="5">
-        <v>1048.7190788333817</v>
+        <v>1153.8883450634803</v>
       </c>
       <c r="F176" s="5">
         <v>0</v>
@@ -5730,13 +5730,13 @@
         <v>15</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E177" s="5">
-        <v>1042.4445544281273</v>
+        <v>1149.8260210522769</v>
       </c>
       <c r="F177" s="5">
         <v>0</v>
@@ -5753,13 +5753,13 @@
         <v>15</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E178" s="5">
-        <v>1038.0464720773182</v>
+        <v>1147.0063524916293</v>
       </c>
       <c r="F178" s="5">
         <v>0</v>
@@ -5776,13 +5776,13 @@
         <v>15</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E179" s="5">
-        <v>1028.6002226819608</v>
+        <v>1146.072194648945</v>
       </c>
       <c r="F179" s="5">
         <v>0</v>
@@ -5799,13 +5799,13 @@
         <v>15</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E180" s="5">
-        <v>1023.3439976745191</v>
+        <v>1132.9544448099839</v>
       </c>
       <c r="F180" s="5">
         <v>0</v>
@@ -5822,13 +5822,13 @@
         <v>15</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E181" s="5">
-        <v>1018.20572352336</v>
+        <v>1107.2489124665008</v>
       </c>
       <c r="F181" s="5">
         <v>0</v>
@@ -5845,13 +5845,13 @@
         <v>15</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E182" s="5">
-        <v>984.81198548008422</v>
+        <v>1088.2164292826319</v>
       </c>
       <c r="F182" s="5">
         <v>0</v>
@@ -5868,13 +5868,13 @@
         <v>15</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E183" s="5">
-        <v>959.8743603716066</v>
+        <v>1085.9761616838432</v>
       </c>
       <c r="F183" s="5">
         <v>0</v>
@@ -5891,13 +5891,13 @@
         <v>15</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E184" s="5">
-        <v>953.73137968752462</v>
+        <v>1068.1292833100395</v>
       </c>
       <c r="F184" s="5">
         <v>0</v>
@@ -5914,13 +5914,13 @@
         <v>15</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E185" s="5">
-        <v>952.077486242394</v>
+        <v>1065.5190107531489</v>
       </c>
       <c r="F185" s="5">
         <v>0</v>
@@ -5937,13 +5937,13 @@
         <v>15</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E186" s="5">
-        <v>951.13611044208722</v>
+        <v>1048.7190788333817</v>
       </c>
       <c r="F186" s="5">
         <v>0</v>
@@ -5960,13 +5960,13 @@
         <v>15</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E187" s="5">
-        <v>948.89035377279481</v>
+        <v>1042.4445544281273</v>
       </c>
       <c r="F187" s="5">
         <v>0</v>
@@ -5983,13 +5983,13 @@
         <v>15</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E188" s="5">
-        <v>937.01334717369832</v>
+        <v>1038.0464720773182</v>
       </c>
       <c r="F188" s="5">
         <v>0</v>
@@ -6006,13 +6006,13 @@
         <v>15</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E189" s="5">
-        <v>927.13027601007877</v>
+        <v>1028.6002226819608</v>
       </c>
       <c r="F189" s="5">
         <v>0</v>
@@ -6029,13 +6029,13 @@
         <v>15</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E190" s="5">
-        <v>903.94776769204236</v>
+        <v>1023.3439976745191</v>
       </c>
       <c r="F190" s="5">
         <v>0</v>
@@ -6052,13 +6052,13 @@
         <v>15</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E191" s="5">
-        <v>903.69041151078409</v>
+        <v>1018.20572352336</v>
       </c>
       <c r="F191" s="5">
         <v>0</v>
@@ -6075,13 +6075,13 @@
         <v>15</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E192" s="5">
-        <v>894.90776116793108</v>
+        <v>984.81198548008422</v>
       </c>
       <c r="F192" s="5">
         <v>0</v>
@@ -6098,13 +6098,13 @@
         <v>15</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E193" s="5">
-        <v>893.13944296171314</v>
+        <v>959.8743603716066</v>
       </c>
       <c r="F193" s="5">
         <v>0</v>
@@ -6121,13 +6121,13 @@
         <v>15</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E194" s="5">
-        <v>882.14494549021992</v>
+        <v>953.73137968752462</v>
       </c>
       <c r="F194" s="5">
         <v>0</v>
@@ -6144,13 +6144,13 @@
         <v>15</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E195" s="5">
-        <v>878.94077919496942</v>
+        <v>952.077486242394</v>
       </c>
       <c r="F195" s="5">
         <v>0</v>
@@ -6167,13 +6167,13 @@
         <v>15</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E196" s="5">
-        <v>876.75778963633343</v>
+        <v>951.13611044208722</v>
       </c>
       <c r="F196" s="5">
         <v>0</v>
@@ -6190,13 +6190,13 @@
         <v>15</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E197" s="5">
-        <v>868.07696927035136</v>
+        <v>948.89035377279481</v>
       </c>
       <c r="F197" s="5">
         <v>0</v>
@@ -6213,13 +6213,13 @@
         <v>15</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E198" s="5">
-        <v>864.41221461962971</v>
+        <v>937.01334717369832</v>
       </c>
       <c r="F198" s="5">
         <v>0</v>
@@ -6236,13 +6236,13 @@
         <v>15</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E199" s="5">
-        <v>852.54004017151988</v>
+        <v>927.13027601007877</v>
       </c>
       <c r="F199" s="5">
         <v>0</v>
@@ -6259,13 +6259,13 @@
         <v>15</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D200" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E200" s="5">
-        <v>830.72850403306859</v>
+        <v>903.94776769204236</v>
       </c>
       <c r="F200" s="5">
         <v>0</v>
@@ -6282,13 +6282,13 @@
         <v>15</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E201" s="5">
-        <v>822.34701760060398</v>
+        <v>903.69041151078409</v>
       </c>
       <c r="F201" s="5">
         <v>0</v>
@@ -6305,13 +6305,13 @@
         <v>15</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E202" s="5">
-        <v>818.39823513352849</v>
+        <v>894.90776116793108</v>
       </c>
       <c r="F202" s="5">
         <v>0</v>
@@ -6328,13 +6328,13 @@
         <v>15</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E203" s="5">
-        <v>809.38504130548836</v>
+        <v>893.13944296171314</v>
       </c>
       <c r="F203" s="5">
         <v>0</v>
@@ -6351,13 +6351,13 @@
         <v>15</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E204" s="5">
-        <v>808.72697084736944</v>
+        <v>882.14494549021992</v>
       </c>
       <c r="F204" s="5">
         <v>0</v>
@@ -6374,13 +6374,13 @@
         <v>15</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E205" s="5">
-        <v>801.25526347266816</v>
+        <v>878.94077919496942</v>
       </c>
       <c r="F205" s="5">
         <v>0</v>
@@ -6397,13 +6397,13 @@
         <v>15</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E206" s="5">
-        <v>792.35210613376432</v>
+        <v>876.75778963633343</v>
       </c>
       <c r="F206" s="5">
         <v>0</v>
@@ -6420,13 +6420,13 @@
         <v>15</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E207" s="5">
-        <v>789.6982054818119</v>
+        <v>868.07696927035136</v>
       </c>
       <c r="F207" s="5">
         <v>0</v>
@@ -6443,13 +6443,13 @@
         <v>15</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E208" s="5">
-        <v>783.21042862893319</v>
+        <v>864.41221461962971</v>
       </c>
       <c r="F208" s="5">
         <v>0</v>
@@ -6466,13 +6466,13 @@
         <v>15</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E209" s="5">
-        <v>776.43501546958748</v>
+        <v>852.54004017151988</v>
       </c>
       <c r="F209" s="5">
         <v>0</v>
@@ -6489,13 +6489,13 @@
         <v>15</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E210" s="5">
-        <v>762.86166493146948</v>
+        <v>830.72850403306859</v>
       </c>
       <c r="F210" s="5">
         <v>0</v>
@@ -6512,13 +6512,13 @@
         <v>15</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E211" s="5">
-        <v>762.74813921720136</v>
+        <v>822.34701760060398</v>
       </c>
       <c r="F211" s="5">
         <v>0</v>
@@ -6535,13 +6535,13 @@
         <v>15</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E212" s="5">
-        <v>758.9890315029545</v>
+        <v>818.39823513352849</v>
       </c>
       <c r="F212" s="5">
         <v>0</v>
@@ -6558,13 +6558,13 @@
         <v>15</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E213" s="5">
-        <v>757.16124718013282</v>
+        <v>809.38504130548836</v>
       </c>
       <c r="F213" s="5">
         <v>0</v>
@@ -6581,13 +6581,13 @@
         <v>15</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E214" s="5">
-        <v>744.73839875908413</v>
+        <v>808.72697084736944</v>
       </c>
       <c r="F214" s="5">
         <v>0</v>
@@ -6604,13 +6604,13 @@
         <v>15</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E215" s="5">
-        <v>734.72690951591881</v>
+        <v>801.25526347266816</v>
       </c>
       <c r="F215" s="5">
         <v>0</v>
@@ -6627,13 +6627,13 @@
         <v>15</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E216" s="5">
-        <v>733.59210559177529</v>
+        <v>792.35210613376432</v>
       </c>
       <c r="F216" s="5">
         <v>0</v>
@@ -6650,13 +6650,13 @@
         <v>15</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E217" s="5">
-        <v>716.66781276998097</v>
+        <v>789.6982054818119</v>
       </c>
       <c r="F217" s="5">
         <v>0</v>
@@ -6673,13 +6673,13 @@
         <v>15</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E218" s="5">
-        <v>711.14150351729131</v>
+        <v>783.21042862893319</v>
       </c>
       <c r="F218" s="5">
         <v>0</v>
@@ -6696,13 +6696,13 @@
         <v>15</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E219" s="5">
-        <v>707.27482742611846</v>
+        <v>776.43501546958748</v>
       </c>
       <c r="F219" s="5">
         <v>0</v>
@@ -6719,13 +6719,13 @@
         <v>15</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E220" s="5">
-        <v>703.54401426973936</v>
+        <v>762.86166493146948</v>
       </c>
       <c r="F220" s="5">
         <v>0</v>
@@ -6742,13 +6742,13 @@
         <v>15</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D221" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E221" s="5">
-        <v>689.83493599445399</v>
+        <v>762.74813921720136</v>
       </c>
       <c r="F221" s="5">
         <v>0</v>
@@ -6765,13 +6765,13 @@
         <v>15</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D222" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E222" s="5">
-        <v>684.78627537726402</v>
+        <v>758.9890315029545</v>
       </c>
       <c r="F222" s="5">
         <v>0</v>
@@ -6788,13 +6788,13 @@
         <v>15</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E223" s="5">
-        <v>684.72267529378905</v>
+        <v>757.16124718013282</v>
       </c>
       <c r="F223" s="5">
         <v>0</v>
@@ -6811,13 +6811,13 @@
         <v>15</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D224" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E224" s="5">
-        <v>679.01667158310909</v>
+        <v>744.73839875908413</v>
       </c>
       <c r="F224" s="5">
         <v>0</v>
@@ -6834,13 +6834,13 @@
         <v>15</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E225" s="5">
-        <v>661.19569613579256</v>
+        <v>734.72690951591881</v>
       </c>
       <c r="F225" s="5">
         <v>0</v>
@@ -6857,13 +6857,13 @@
         <v>15</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D226" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E226" s="5">
-        <v>659.75871416124983</v>
+        <v>733.59210559177529</v>
       </c>
       <c r="F226" s="5">
         <v>0</v>
@@ -6880,13 +6880,13 @@
         <v>15</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E227" s="5">
-        <v>642.74948663011332</v>
+        <v>716.66781276998097</v>
       </c>
       <c r="F227" s="5">
         <v>0</v>
@@ -6903,13 +6903,13 @@
         <v>15</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E228" s="5">
-        <v>640.24254913502045</v>
+        <v>711.14150351729131</v>
       </c>
       <c r="F228" s="5">
         <v>0</v>
@@ -6926,13 +6926,13 @@
         <v>15</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E229" s="5">
-        <v>617.33391518416909</v>
+        <v>707.27482742611846</v>
       </c>
       <c r="F229" s="5">
         <v>0</v>
@@ -6949,13 +6949,13 @@
         <v>15</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E230" s="5">
-        <v>614.68030813984103</v>
+        <v>703.54401426973936</v>
       </c>
       <c r="F230" s="5">
         <v>0</v>
@@ -6972,13 +6972,13 @@
         <v>15</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E231" s="5">
-        <v>608.63542059228882</v>
+        <v>689.83493599445399</v>
       </c>
       <c r="F231" s="5">
         <v>0</v>
@@ -6995,13 +6995,13 @@
         <v>15</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E232" s="5">
-        <v>605.21049355282753</v>
+        <v>684.78627537726402</v>
       </c>
       <c r="F232" s="5">
         <v>0</v>
@@ -7018,13 +7018,13 @@
         <v>15</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E233" s="5">
-        <v>602.99587032850036</v>
+        <v>684.72267529378905</v>
       </c>
       <c r="F233" s="5">
         <v>0</v>
@@ -7041,13 +7041,13 @@
         <v>15</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E234" s="5">
-        <v>594.87591619145712</v>
+        <v>679.01667158310909</v>
       </c>
       <c r="F234" s="5">
         <v>0</v>
@@ -7064,13 +7064,13 @@
         <v>15</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D235" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E235" s="5">
-        <v>594.29362776561481</v>
+        <v>661.19569613579256</v>
       </c>
       <c r="F235" s="5">
         <v>0</v>
@@ -7087,13 +7087,13 @@
         <v>15</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E236" s="5">
-        <v>587.37754598489164</v>
+        <v>659.75871416124983</v>
       </c>
       <c r="F236" s="5">
         <v>0</v>
@@ -7110,13 +7110,13 @@
         <v>15</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D237" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E237" s="5">
-        <v>577.73019045720753</v>
+        <v>642.74948663011332</v>
       </c>
       <c r="F237" s="5">
         <v>0</v>
@@ -7133,13 +7133,13 @@
         <v>15</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D238" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E238" s="5">
-        <v>565.1557907275353</v>
+        <v>640.24254913502045</v>
       </c>
       <c r="F238" s="5">
         <v>0</v>
@@ -7156,13 +7156,13 @@
         <v>15</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E239" s="5">
-        <v>562.97118925899076</v>
+        <v>617.33391518416909</v>
       </c>
       <c r="F239" s="5">
         <v>0</v>
@@ -7179,13 +7179,13 @@
         <v>15</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D240" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E240" s="5">
-        <v>562.58598388005396</v>
+        <v>614.68030813984103</v>
       </c>
       <c r="F240" s="5">
         <v>0</v>
@@ -7202,13 +7202,13 @@
         <v>15</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E241" s="5">
-        <v>552.70142803772069</v>
+        <v>608.63542059228882</v>
       </c>
       <c r="F241" s="5">
         <v>0</v>
@@ -7225,13 +7225,13 @@
         <v>15</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E242" s="5">
-        <v>552.27288936151092</v>
+        <v>605.21049355282753</v>
       </c>
       <c r="F242" s="5">
         <v>0</v>
@@ -7248,13 +7248,13 @@
         <v>15</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E243" s="5">
-        <v>544.55133371734428</v>
+        <v>602.99587032850036</v>
       </c>
       <c r="F243" s="5">
         <v>0</v>
@@ -7271,13 +7271,13 @@
         <v>15</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E244" s="5">
-        <v>539.17546803171263</v>
+        <v>594.87591619145712</v>
       </c>
       <c r="F244" s="5">
         <v>0</v>
@@ -7294,13 +7294,13 @@
         <v>15</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E245" s="5">
-        <v>526.1854406686889</v>
+        <v>594.29362776561481</v>
       </c>
       <c r="F245" s="5">
         <v>0</v>
@@ -7317,13 +7317,13 @@
         <v>15</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D246" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E246" s="5">
-        <v>519.26043852549185</v>
+        <v>587.37754598489164</v>
       </c>
       <c r="F246" s="5">
         <v>0</v>
@@ -7340,13 +7340,13 @@
         <v>15</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E247" s="5">
-        <v>518.24128301625694</v>
+        <v>577.73019045720753</v>
       </c>
       <c r="F247" s="5">
         <v>0</v>
@@ -7363,13 +7363,13 @@
         <v>15</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E248" s="5">
-        <v>517.53553099228168</v>
+        <v>565.1557907275353</v>
       </c>
       <c r="F248" s="5">
         <v>0</v>
@@ -7386,13 +7386,13 @@
         <v>15</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E249" s="5">
-        <v>516.76796588512138</v>
+        <v>562.97118925899076</v>
       </c>
       <c r="F249" s="5">
         <v>0</v>
@@ -7409,13 +7409,13 @@
         <v>15</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E250" s="5">
-        <v>512.73333544839136</v>
+        <v>562.58598388005396</v>
       </c>
       <c r="F250" s="5">
         <v>0</v>
@@ -7432,13 +7432,13 @@
         <v>15</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E251" s="5">
-        <v>510.52529384501071</v>
+        <v>552.70142803772069</v>
       </c>
       <c r="F251" s="5">
         <v>0</v>
@@ -7455,13 +7455,13 @@
         <v>15</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E252" s="5">
-        <v>504.68383096240137</v>
+        <v>552.27288936151092</v>
       </c>
       <c r="F252" s="5">
         <v>0</v>
@@ -7478,13 +7478,13 @@
         <v>15</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E253" s="5">
-        <v>502.36422135135865</v>
+        <v>544.55133371734428</v>
       </c>
       <c r="F253" s="5">
         <v>0</v>
@@ -7501,13 +7501,13 @@
         <v>15</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E254" s="5">
-        <v>492.15821206163895</v>
+        <v>539.17546803171263</v>
       </c>
       <c r="F254" s="5">
         <v>0</v>
@@ -7524,13 +7524,13 @@
         <v>15</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E255" s="5">
-        <v>488.77171866961754</v>
+        <v>526.1854406686889</v>
       </c>
       <c r="F255" s="5">
         <v>0</v>
@@ -7547,13 +7547,13 @@
         <v>15</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E256" s="5">
-        <v>482.21388970968752</v>
+        <v>519.26043852549185</v>
       </c>
       <c r="F256" s="5">
         <v>0</v>
@@ -7570,13 +7570,13 @@
         <v>15</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E257" s="5">
-        <v>480.84864312664462</v>
+        <v>518.24128301625694</v>
       </c>
       <c r="F257" s="5">
         <v>0</v>
@@ -7593,13 +7593,13 @@
         <v>15</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E258" s="5">
-        <v>479.03606586125807</v>
+        <v>517.53553099228168</v>
       </c>
       <c r="F258" s="5">
         <v>0</v>
@@ -7616,13 +7616,13 @@
         <v>15</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D259" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E259" s="5">
-        <v>476.43878860940009</v>
+        <v>516.76796588512138</v>
       </c>
       <c r="F259" s="5">
         <v>0</v>
@@ -7639,13 +7639,13 @@
         <v>15</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E260" s="5">
-        <v>472.9764760342286</v>
+        <v>512.73333544839136</v>
       </c>
       <c r="F260" s="5">
         <v>0</v>
@@ -7662,13 +7662,13 @@
         <v>15</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E261" s="5">
-        <v>471.37726965705968</v>
+        <v>510.52529384501071</v>
       </c>
       <c r="F261" s="5">
         <v>0</v>
@@ -7685,13 +7685,13 @@
         <v>15</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D262" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E262" s="5">
-        <v>449.9982387475419</v>
+        <v>504.68383096240137</v>
       </c>
       <c r="F262" s="5">
         <v>0</v>
@@ -7708,13 +7708,13 @@
         <v>15</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E263" s="5">
-        <v>449.89278275054818</v>
+        <v>502.36422135135865</v>
       </c>
       <c r="F263" s="5">
         <v>0</v>
@@ -7731,13 +7731,13 @@
         <v>15</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="D264" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E264" s="5">
-        <v>448.1190813509217</v>
+        <v>492.15821206163895</v>
       </c>
       <c r="F264" s="5">
         <v>0</v>
@@ -7754,13 +7754,13 @@
         <v>15</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D265" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E265" s="5">
-        <v>445.41475208378438</v>
+        <v>488.77171866961754</v>
       </c>
       <c r="F265" s="5">
         <v>0</v>
@@ -7777,13 +7777,13 @@
         <v>15</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D266" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E266" s="5">
-        <v>443.10518090933004</v>
+        <v>482.21388970968752</v>
       </c>
       <c r="F266" s="5">
         <v>0</v>
@@ -7800,13 +7800,13 @@
         <v>15</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E267" s="5">
-        <v>442.35417692647854</v>
+        <v>480.84864312664462</v>
       </c>
       <c r="F267" s="5">
         <v>0</v>
@@ -7823,13 +7823,13 @@
         <v>15</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D268" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E268" s="5">
-        <v>436.19521590173537</v>
+        <v>479.03606586125807</v>
       </c>
       <c r="F268" s="5">
         <v>0</v>
@@ -7846,13 +7846,13 @@
         <v>15</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D269" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E269" s="5">
-        <v>434.01244871620139</v>
+        <v>476.43878860940009</v>
       </c>
       <c r="F269" s="5">
         <v>0</v>
@@ -7869,13 +7869,13 @@
         <v>15</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E270" s="5">
-        <v>430.49393054541929</v>
+        <v>472.9764760342286</v>
       </c>
       <c r="F270" s="5">
         <v>0</v>
@@ -7892,13 +7892,13 @@
         <v>15</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D271" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E271" s="5">
-        <v>426.36074127499637</v>
+        <v>471.37726965705968</v>
       </c>
       <c r="F271" s="5">
         <v>0</v>
@@ -7915,13 +7915,13 @@
         <v>15</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E272" s="5">
-        <v>419.55598247987416</v>
+        <v>449.9982387475419</v>
       </c>
       <c r="F272" s="5">
         <v>0</v>
@@ -7938,13 +7938,13 @@
         <v>15</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E273" s="5">
-        <v>414.8098010417774</v>
+        <v>449.89278275054818</v>
       </c>
       <c r="F273" s="5">
         <v>0</v>
@@ -7961,13 +7961,13 @@
         <v>15</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E274" s="5">
-        <v>413.38766604998244</v>
+        <v>448.1190813509217</v>
       </c>
       <c r="F274" s="5">
         <v>0</v>
@@ -7984,13 +7984,13 @@
         <v>15</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E275" s="5">
-        <v>411.89177061116351</v>
+        <v>445.41475208378438</v>
       </c>
       <c r="F275" s="5">
         <v>0</v>
@@ -8007,13 +8007,13 @@
         <v>15</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D276" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E276" s="5">
-        <v>411.56803742920317</v>
+        <v>443.10518090933004</v>
       </c>
       <c r="F276" s="5">
         <v>0</v>
@@ -8030,13 +8030,13 @@
         <v>15</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E277" s="5">
-        <v>408.94950900905553</v>
+        <v>442.35417692647854</v>
       </c>
       <c r="F277" s="5">
         <v>0</v>
@@ -8053,13 +8053,13 @@
         <v>15</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="D278" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E278" s="5">
-        <v>405.92422254197385</v>
+        <v>436.19521590173537</v>
       </c>
       <c r="F278" s="5">
         <v>0</v>
@@ -8076,13 +8076,13 @@
         <v>15</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E279" s="5">
-        <v>400.30981641083667</v>
+        <v>434.01244871620139</v>
       </c>
       <c r="F279" s="5">
         <v>0</v>
@@ -8099,13 +8099,13 @@
         <v>15</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E280" s="5">
-        <v>397.04546398527089</v>
+        <v>430.49393054541929</v>
       </c>
       <c r="F280" s="5">
         <v>0</v>
@@ -8122,13 +8122,13 @@
         <v>15</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E281" s="5">
-        <v>389.86050895320346</v>
+        <v>426.36074127499637</v>
       </c>
       <c r="F281" s="5">
         <v>0</v>
@@ -8145,13 +8145,13 @@
         <v>15</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E282" s="5">
-        <v>387.64486270772431</v>
+        <v>419.55598247987416</v>
       </c>
       <c r="F282" s="5">
         <v>0</v>
@@ -8168,13 +8168,13 @@
         <v>15</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D283" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E283" s="5">
-        <v>387.60986569784734</v>
+        <v>414.8098010417774</v>
       </c>
       <c r="F283" s="5">
         <v>0</v>
@@ -8191,13 +8191,13 @@
         <v>15</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E284" s="5">
-        <v>382.76277034423828</v>
+        <v>413.38766604998244</v>
       </c>
       <c r="F284" s="5">
         <v>0</v>
@@ -8214,13 +8214,13 @@
         <v>15</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E285" s="5">
-        <v>380.92117531176922</v>
+        <v>411.89177061116351</v>
       </c>
       <c r="F285" s="5">
         <v>0</v>
@@ -8237,13 +8237,13 @@
         <v>15</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E286" s="5">
-        <v>376.85763868982207</v>
+        <v>411.56803742920317</v>
       </c>
       <c r="F286" s="5">
         <v>0</v>
@@ -8260,13 +8260,13 @@
         <v>15</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E287" s="5">
-        <v>376.5332841735455</v>
+        <v>408.94950900905553</v>
       </c>
       <c r="F287" s="5">
         <v>0</v>
@@ -8283,13 +8283,13 @@
         <v>15</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D288" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E288" s="5">
-        <v>373.94884544616264</v>
+        <v>405.92422254197385</v>
       </c>
       <c r="F288" s="5">
         <v>0</v>
@@ -8306,13 +8306,13 @@
         <v>15</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E289" s="5">
-        <v>372.48030524434512</v>
+        <v>400.30981641083667</v>
       </c>
       <c r="F289" s="5">
         <v>0</v>
@@ -8329,13 +8329,13 @@
         <v>15</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E290" s="5">
-        <v>372.38097062217958</v>
+        <v>397.04546398527089</v>
       </c>
       <c r="F290" s="5">
         <v>0</v>
@@ -8352,13 +8352,13 @@
         <v>15</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D291" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E291" s="5">
-        <v>371.83058307740703</v>
+        <v>389.86050895320346</v>
       </c>
       <c r="F291" s="5">
         <v>0</v>
@@ -8375,13 +8375,13 @@
         <v>15</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E292" s="5">
-        <v>369.30196346698676</v>
+        <v>387.64486270772431</v>
       </c>
       <c r="F292" s="5">
         <v>0</v>
@@ -8398,13 +8398,13 @@
         <v>15</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E293" s="5">
-        <v>364.16753527496974</v>
+        <v>387.60986569784734</v>
       </c>
       <c r="F293" s="5">
         <v>0</v>
@@ -8421,13 +8421,13 @@
         <v>15</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E294" s="5">
-        <v>362.94687686791997</v>
+        <v>382.76277034423828</v>
       </c>
       <c r="F294" s="5">
         <v>0</v>
@@ -8444,13 +8444,13 @@
         <v>15</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D295" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E295" s="5">
-        <v>350.57690760966733</v>
+        <v>380.92117531176922</v>
       </c>
       <c r="F295" s="5">
         <v>0</v>
@@ -8467,13 +8467,13 @@
         <v>15</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E296" s="5">
-        <v>350.24669069310778</v>
+        <v>376.85763868982207</v>
       </c>
       <c r="F296" s="5">
         <v>0</v>
@@ -8490,13 +8490,13 @@
         <v>15</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D297" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E297" s="5">
-        <v>349.53541427666636</v>
+        <v>376.5332841735455</v>
       </c>
       <c r="F297" s="5">
         <v>0</v>
@@ -8513,13 +8513,13 @@
         <v>15</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E298" s="5">
-        <v>339.87714026187666</v>
+        <v>373.94884544616264</v>
       </c>
       <c r="F298" s="5">
         <v>0</v>
@@ -8536,13 +8536,13 @@
         <v>15</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E299" s="5">
-        <v>334.88027533469426</v>
+        <v>372.48030524434512</v>
       </c>
       <c r="F299" s="5">
         <v>0</v>
@@ -8559,13 +8559,13 @@
         <v>15</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="D300" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E300" s="5">
-        <v>331.86700579125619</v>
+        <v>372.38097062217958</v>
       </c>
       <c r="F300" s="5">
         <v>0</v>
@@ -8582,13 +8582,13 @@
         <v>15</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E301" s="5">
-        <v>331.42821117044753</v>
+        <v>371.83058307740703</v>
       </c>
       <c r="F301" s="5">
         <v>0</v>
@@ -8605,13 +8605,13 @@
         <v>15</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E302" s="5">
-        <v>329.82412705338089</v>
+        <v>369.30196346698676</v>
       </c>
       <c r="F302" s="5">
         <v>0</v>
@@ -8628,13 +8628,13 @@
         <v>15</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E303" s="5">
-        <v>326.20051164250418</v>
+        <v>364.16753527496974</v>
       </c>
       <c r="F303" s="5">
         <v>0</v>
@@ -8651,13 +8651,13 @@
         <v>15</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E304" s="5">
-        <v>324.11272235361076</v>
+        <v>362.94687686791997</v>
       </c>
       <c r="F304" s="5">
         <v>0</v>
@@ -8674,13 +8674,13 @@
         <v>15</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E305" s="5">
-        <v>323.03262126207619</v>
+        <v>350.57690760966733</v>
       </c>
       <c r="F305" s="5">
         <v>0</v>
@@ -8697,13 +8697,13 @@
         <v>15</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E306" s="5">
-        <v>322.29556707381738</v>
+        <v>350.24669069310778</v>
       </c>
       <c r="F306" s="5">
         <v>0</v>
@@ -8720,13 +8720,13 @@
         <v>15</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E307" s="5">
-        <v>320.09978532643055</v>
+        <v>349.53541427666636</v>
       </c>
       <c r="F307" s="5">
         <v>0</v>
@@ -8743,13 +8743,13 @@
         <v>15</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E308" s="5">
-        <v>314.97900859207533</v>
+        <v>339.87714026187666</v>
       </c>
       <c r="F308" s="5">
         <v>0</v>
@@ -8766,13 +8766,13 @@
         <v>15</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D309" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E309" s="5">
-        <v>310.55234619680937</v>
+        <v>334.88027533469426</v>
       </c>
       <c r="F309" s="5">
         <v>0</v>
@@ -8789,13 +8789,13 @@
         <v>15</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E310" s="5">
-        <v>309.51314273064418</v>
+        <v>331.86700579125619</v>
       </c>
       <c r="F310" s="5">
         <v>0</v>
@@ -8812,13 +8812,13 @@
         <v>15</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E311" s="5">
-        <v>308.57851461614626</v>
+        <v>331.42821117044753</v>
       </c>
       <c r="F311" s="5">
         <v>0</v>
@@ -8835,13 +8835,13 @@
         <v>15</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E312" s="5">
-        <v>306.9453388647446</v>
+        <v>329.82412705338089</v>
       </c>
       <c r="F312" s="5">
         <v>0</v>
@@ -8858,13 +8858,13 @@
         <v>15</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E313" s="5">
-        <v>303.73477129899896</v>
+        <v>326.20051164250418</v>
       </c>
       <c r="F313" s="5">
         <v>0</v>
@@ -8881,13 +8881,13 @@
         <v>15</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E314" s="5">
-        <v>301.39468935897224</v>
+        <v>324.11272235361076</v>
       </c>
       <c r="F314" s="5">
         <v>0</v>
@@ -8904,13 +8904,13 @@
         <v>15</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E315" s="5">
-        <v>299.05637380753217</v>
+        <v>323.03262126207619</v>
       </c>
       <c r="F315" s="5">
         <v>0</v>
@@ -8927,13 +8927,13 @@
         <v>15</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E316" s="5">
-        <v>291.27341707397397</v>
+        <v>322.29556707381738</v>
       </c>
       <c r="F316" s="5">
         <v>0</v>
@@ -8950,13 +8950,13 @@
         <v>15</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="D317" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E317" s="5">
-        <v>284.56592363375427</v>
+        <v>320.09978532643055</v>
       </c>
       <c r="F317" s="5">
         <v>0</v>
@@ -8973,13 +8973,13 @@
         <v>15</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="D318" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E318" s="5">
-        <v>280.12849066731468</v>
+        <v>314.97900859207533</v>
       </c>
       <c r="F318" s="5">
         <v>0</v>
@@ -8996,13 +8996,13 @@
         <v>15</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="D319" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E319" s="5">
-        <v>279.3254318069948</v>
+        <v>310.55234619680937</v>
       </c>
       <c r="F319" s="5">
         <v>0</v>
@@ -9019,13 +9019,13 @@
         <v>15</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D320" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E320" s="5">
-        <v>274.74012612827943</v>
+        <v>309.51314273064418</v>
       </c>
       <c r="F320" s="5">
         <v>0</v>
@@ -9042,13 +9042,13 @@
         <v>15</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E321" s="5">
-        <v>271.52418628821886</v>
+        <v>308.57851461614626</v>
       </c>
       <c r="F321" s="5">
         <v>0</v>
@@ -9065,13 +9065,13 @@
         <v>15</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E322" s="5">
-        <v>267.57066841162975</v>
+        <v>306.9453388647446</v>
       </c>
       <c r="F322" s="5">
         <v>0</v>
@@ -9088,13 +9088,13 @@
         <v>15</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="D323" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E323" s="5">
-        <v>258.95316574451442</v>
+        <v>303.73477129899896</v>
       </c>
       <c r="F323" s="5">
         <v>0</v>
@@ -9111,13 +9111,13 @@
         <v>15</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="D324" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E324" s="5">
-        <v>255.21746759122297</v>
+        <v>301.39468935897224</v>
       </c>
       <c r="F324" s="5">
         <v>0</v>
@@ -9134,13 +9134,13 @@
         <v>15</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E325" s="5">
-        <v>253.64200249343241</v>
+        <v>299.05637380753217</v>
       </c>
       <c r="F325" s="5">
         <v>0</v>
@@ -9157,13 +9157,13 @@
         <v>15</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="D326" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E326" s="5">
-        <v>249.53318118155701</v>
+        <v>291.27341707397397</v>
       </c>
       <c r="F326" s="5">
         <v>0</v>
@@ -9180,13 +9180,13 @@
         <v>15</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="D327" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E327" s="5">
-        <v>248.293142183979</v>
+        <v>284.56592363375427</v>
       </c>
       <c r="F327" s="5">
         <v>0</v>
@@ -9203,13 +9203,13 @@
         <v>15</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E328" s="5">
-        <v>245.63381991782376</v>
+        <v>280.12849066731468</v>
       </c>
       <c r="F328" s="5">
         <v>0</v>
@@ -9226,13 +9226,13 @@
         <v>15</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E329" s="5">
-        <v>232.42988699731626</v>
+        <v>279.3254318069948</v>
       </c>
       <c r="F329" s="5">
         <v>0</v>
@@ -9249,13 +9249,13 @@
         <v>15</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="D330" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E330" s="5">
-        <v>227.22003849177779</v>
+        <v>274.74012612827943</v>
       </c>
       <c r="F330" s="5">
         <v>0</v>
@@ -9272,13 +9272,13 @@
         <v>15</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E331" s="5">
-        <v>224.9732617846341</v>
+        <v>271.52418628821886</v>
       </c>
       <c r="F331" s="5">
         <v>0</v>
@@ -9295,13 +9295,13 @@
         <v>15</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D332" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E332" s="5">
-        <v>216.41179439283329</v>
+        <v>267.57066841162975</v>
       </c>
       <c r="F332" s="5">
         <v>0</v>
@@ -9318,13 +9318,13 @@
         <v>15</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D333" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E333" s="5">
-        <v>212.63959369468952</v>
+        <v>258.95316574451442</v>
       </c>
       <c r="F333" s="5">
         <v>0</v>
@@ -9341,13 +9341,13 @@
         <v>15</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="D334" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E334" s="5">
-        <v>211.20058076739571</v>
+        <v>255.21746759122297</v>
       </c>
       <c r="F334" s="5">
         <v>0</v>
@@ -9364,13 +9364,13 @@
         <v>15</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="D335" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E335" s="5">
-        <v>204.23005637939363</v>
+        <v>253.64200249343241</v>
       </c>
       <c r="F335" s="5">
         <v>0</v>
@@ -9387,13 +9387,13 @@
         <v>15</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D336" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E336" s="5">
-        <v>202.67470094379968</v>
+        <v>249.53318118155701</v>
       </c>
       <c r="F336" s="5">
         <v>0</v>
@@ -9410,13 +9410,13 @@
         <v>15</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="D337" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E337" s="5">
-        <v>195.73052852351003</v>
+        <v>248.293142183979</v>
       </c>
       <c r="F337" s="5">
         <v>0</v>
@@ -9433,13 +9433,13 @@
         <v>15</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="D338" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E338" s="5">
-        <v>193.39742771982628</v>
+        <v>245.63381991782376</v>
       </c>
       <c r="F338" s="5">
         <v>0</v>
@@ -9456,13 +9456,13 @@
         <v>15</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D339" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E339" s="5">
-        <v>187.38861872886326</v>
+        <v>232.42988699731626</v>
       </c>
       <c r="F339" s="5">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>15</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="D340" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E340" s="5">
-        <v>180.1584991065736</v>
+        <v>227.22003849177779</v>
       </c>
       <c r="F340" s="5">
         <v>0</v>
@@ -9502,13 +9502,13 @@
         <v>15</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="D341" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E341" s="5">
-        <v>179.38623832142724</v>
+        <v>224.9732617846341</v>
       </c>
       <c r="F341" s="5">
         <v>0</v>
@@ -9525,13 +9525,13 @@
         <v>15</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D342" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E342" s="5">
-        <v>175.03817212225215</v>
+        <v>216.41179439283329</v>
       </c>
       <c r="F342" s="5">
         <v>0</v>
@@ -9548,13 +9548,13 @@
         <v>15</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="D343" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E343" s="5">
-        <v>174.92362277781277</v>
+        <v>212.63959369468952</v>
       </c>
       <c r="F343" s="5">
         <v>0</v>
@@ -9571,13 +9571,13 @@
         <v>15</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="D344" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E344" s="5">
-        <v>170.70309461901726</v>
+        <v>211.20058076739571</v>
       </c>
       <c r="F344" s="5">
         <v>0</v>
@@ -9594,13 +9594,13 @@
         <v>15</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="D345" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E345" s="5">
-        <v>168.54594417585466</v>
+        <v>204.23005637939363</v>
       </c>
       <c r="F345" s="5">
         <v>0</v>
@@ -9617,13 +9617,13 @@
         <v>15</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D346" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E346" s="5">
-        <v>163.62721224814686</v>
+        <v>202.67470094379968</v>
       </c>
       <c r="F346" s="5">
         <v>0</v>
@@ -9640,13 +9640,13 @@
         <v>15</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D347" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E347" s="5">
-        <v>158.09407022939672</v>
+        <v>195.73052852351003</v>
       </c>
       <c r="F347" s="5">
         <v>0</v>
@@ -9663,13 +9663,13 @@
         <v>15</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="D348" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E348" s="5">
-        <v>151.28757191410099</v>
+        <v>193.39742771982628</v>
       </c>
       <c r="F348" s="5">
         <v>0</v>
@@ -9686,13 +9686,13 @@
         <v>15</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="D349" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E349" s="5">
-        <v>134.65436892599524</v>
+        <v>187.38861872886326</v>
       </c>
       <c r="F349" s="5">
         <v>0</v>
@@ -9709,13 +9709,13 @@
         <v>15</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="D350" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E350" s="5">
-        <v>132.90670430338255</v>
+        <v>180.1584991065736</v>
       </c>
       <c r="F350" s="5">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>15</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="D351" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E351" s="5">
-        <v>127.92327742918395</v>
+        <v>179.38623832142724</v>
       </c>
       <c r="F351" s="5">
         <v>0</v>
@@ -9755,13 +9755,13 @@
         <v>15</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D352" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E352" s="5">
-        <v>127.86446118531484</v>
+        <v>175.03817212225215</v>
       </c>
       <c r="F352" s="5">
         <v>0</v>
@@ -9778,13 +9778,13 @@
         <v>15</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D353" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E353" s="5">
-        <v>125.97949661453055</v>
+        <v>174.92362277781277</v>
       </c>
       <c r="F353" s="5">
         <v>0</v>
@@ -9801,13 +9801,13 @@
         <v>15</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="D354" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E354" s="5">
-        <v>109.93554864996443</v>
+        <v>170.70309461901726</v>
       </c>
       <c r="F354" s="5">
         <v>0</v>
@@ -9824,13 +9824,13 @@
         <v>15</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="D355" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E355" s="5">
-        <v>107.76930655861366</v>
+        <v>168.54594417585466</v>
       </c>
       <c r="F355" s="5">
         <v>0</v>
@@ -9847,13 +9847,13 @@
         <v>15</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="D356" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E356" s="5">
-        <v>104.27005293324332</v>
+        <v>163.62721224814686</v>
       </c>
       <c r="F356" s="5">
         <v>0</v>
@@ -9870,13 +9870,13 @@
         <v>15</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D357" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E357" s="5">
-        <v>101.91720485587953</v>
+        <v>158.09407022939672</v>
       </c>
       <c r="F357" s="5">
         <v>0</v>
@@ -9893,13 +9893,13 @@
         <v>15</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D358" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E358" s="5">
-        <v>93.257989403079677</v>
+        <v>151.28757191410099</v>
       </c>
       <c r="F358" s="5">
         <v>0</v>
@@ -9916,13 +9916,13 @@
         <v>15</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="D359" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E359" s="5">
-        <v>92.236867910538635</v>
+        <v>134.65436892599524</v>
       </c>
       <c r="F359" s="5">
         <v>0</v>
@@ -9939,13 +9939,13 @@
         <v>15</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D360" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E360" s="5">
-        <v>91.988099320541735</v>
+        <v>132.90670430338255</v>
       </c>
       <c r="F360" s="5">
         <v>0</v>
@@ -9962,13 +9962,13 @@
         <v>15</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="D361" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E361" s="5">
-        <v>84.814686197643653</v>
+        <v>127.92327742918395</v>
       </c>
       <c r="F361" s="5">
         <v>0</v>
@@ -9985,13 +9985,13 @@
         <v>15</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="D362" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E362" s="5">
-        <v>76.979041448517194</v>
+        <v>127.86446118531484</v>
       </c>
       <c r="F362" s="5">
         <v>0</v>
@@ -10008,13 +10008,13 @@
         <v>15</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="D363" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E363" s="5">
-        <v>69.808584524650129</v>
+        <v>125.97949661453055</v>
       </c>
       <c r="F363" s="5">
         <v>0</v>
@@ -10031,13 +10031,13 @@
         <v>15</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="D364" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E364" s="5">
-        <v>60.656024995917463</v>
+        <v>109.93554864996443</v>
       </c>
       <c r="F364" s="5">
         <v>0</v>
@@ -10054,13 +10054,13 @@
         <v>15</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="D365" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E365" s="5">
-        <v>40.549734244751825</v>
+        <v>107.76930655861366</v>
       </c>
       <c r="F365" s="5">
         <v>0</v>
@@ -10077,13 +10077,13 @@
         <v>15</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>220</v>
+        <v>363</v>
       </c>
       <c r="D366" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E366" s="5">
-        <v>35.715457321188467</v>
+        <v>104.27005293324332</v>
       </c>
       <c r="F366" s="5">
         <v>0</v>
@@ -10100,13 +10100,13 @@
         <v>15</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="D367" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E367" s="5">
-        <v>27.895465286737313</v>
+        <v>101.91720485587953</v>
       </c>
       <c r="F367" s="5">
         <v>0</v>
@@ -10117,31 +10117,261 @@
     </row>
     <row r="368" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B368" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C368" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D368" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E368" s="5">
+        <v>93.257989403079677</v>
+      </c>
+      <c r="F368" s="5">
+        <v>0</v>
+      </c>
+      <c r="G368" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A369" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B369" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C369" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D369" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E369" s="5">
+        <v>92.236867910538635</v>
+      </c>
+      <c r="F369" s="5">
+        <v>0</v>
+      </c>
+      <c r="G369" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A370" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B370" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C370" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D370" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E370" s="5">
+        <v>91.988099320541735</v>
+      </c>
+      <c r="F370" s="5">
+        <v>0</v>
+      </c>
+      <c r="G370" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A371" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B371" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C371" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="D371" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E371" s="5">
+        <v>84.814686197643653</v>
+      </c>
+      <c r="F371" s="5">
+        <v>0</v>
+      </c>
+      <c r="G371" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A372" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B372" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C372" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="D372" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E372" s="5">
+        <v>76.979041448517194</v>
+      </c>
+      <c r="F372" s="5">
+        <v>0</v>
+      </c>
+      <c r="G372" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A373" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B373" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C373" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D373" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E373" s="5">
+        <v>69.808584524650129</v>
+      </c>
+      <c r="F373" s="5">
+        <v>0</v>
+      </c>
+      <c r="G373" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B374" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C374" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D374" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E374" s="5">
+        <v>60.656024995917463</v>
+      </c>
+      <c r="F374" s="5">
+        <v>0</v>
+      </c>
+      <c r="G374" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A375" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B375" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C375" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="D375" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E375" s="5">
+        <v>40.549734244751825</v>
+      </c>
+      <c r="F375" s="5">
+        <v>0</v>
+      </c>
+      <c r="G375" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A376" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B376" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C376" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D376" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E376" s="5">
+        <v>35.715457321188467</v>
+      </c>
+      <c r="F376" s="5">
+        <v>0</v>
+      </c>
+      <c r="G376" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A377" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B377" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C377" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D377" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E377" s="5">
+        <v>27.895465286737313</v>
+      </c>
+      <c r="F377" s="5">
+        <v>0</v>
+      </c>
+      <c r="G377" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A378" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B368" s="4" t="s">
+      <c r="B378" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C368" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D368" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E368" s="5">
+      <c r="C378" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D378" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E378" s="5">
         <v>675.11378098130513</v>
       </c>
-      <c r="F368" s="5">
-        <v>0</v>
-      </c>
-      <c r="G368" s="7">
+      <c r="F378" s="5">
+        <v>0</v>
+      </c>
+      <c r="G378" s="7">
         <v>5000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G368" xr:uid="{597B28D8-C9D9-4CED-941C-CB20DD1DB1F0}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G368">
-      <sortCondition descending="1" ref="F1:F368"/>
+  <autoFilter ref="A1:G378" xr:uid="{597B28D8-C9D9-4CED-941C-CB20DD1DB1F0}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G378">
+      <sortCondition descending="1" ref="F1:F378"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
